--- a/inst/SurveyDesigner_Referential.xlsx
+++ b/inst/SurveyDesigner_Referential.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="7"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="referential_type" sheetId="1" state="visible" r:id="rId4"/>
@@ -18,14 +18,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">survey!$A$1:$AG$393</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">choices!$A$1:$N$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">indicator!$D$1:$V$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">indicator!$D$1:$U$50</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">indicator_survey!$A$1:$C$104</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">indicator_choices!$B$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">indicator_population!$B$1:$C$97</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">indicator_disaggregation!$A$1:$C$55</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">survey!$A$1:$AG$393</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">choices!$A$1:$N$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">indicator!$D$1:$V$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">indicator!$D$1:$U$50</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">indicator_survey!$A$1:$C$104</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">indicator_choices!$B$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">indicator_population!$B$1:$C$97</definedName>
@@ -6552,7 +6552,7 @@
     <t>name_choices</t>
   </si>
   <si>
-    <t>name_poulation</t>
+    <t>name_population</t>
   </si>
   <si>
     <t>RAS</t>
@@ -6705,11 +6705,11 @@
   </fills>
   <borders count="5">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="double">
@@ -6724,7 +6724,7 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -6739,27 +6739,27 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="none"/>
+      <right style="none"/>
       <top style="thin">
         <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="thin">
         <color rgb="FFCCCCCC"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="none"/>
+      <right style="none"/>
       <top style="thin">
         <color rgb="FFCCCCCC"/>
       </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="7">
@@ -6780,10 +6780,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" indent="-1" vertical="top"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" indent="-1" vertical="top"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf fontId="2" fillId="5" borderId="1" numFmtId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
@@ -34834,19 +34834,25 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A1" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D31" activeCellId="0" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="19.8515625"/>
-    <col customWidth="1" min="3" max="3" width="68.28515625"/>
-    <col customWidth="1" min="4" max="4" width="37.28125"/>
+    <col customWidth="1" min="1" max="1" width="12.8515625"/>
+    <col customWidth="1" min="3" max="3" width="20.57421875"/>
+    <col customWidth="1" min="4" max="4" width="44.00390625"/>
     <col customWidth="1" min="5" max="5" width="41.28125"/>
-    <col customWidth="1" min="6" max="8" width="40.28515625"/>
-    <col customWidth="1" min="17" max="17" width="19.28125"/>
+    <col customWidth="1" min="6" max="6" width="14.7109375"/>
+    <col customWidth="1" min="7" max="7" width="18.8515625"/>
+    <col customWidth="1" min="8" max="8" width="40.28515625"/>
+    <col customWidth="1" min="13" max="13" width="22.28125"/>
+    <col customWidth="1" min="14" max="14" width="10.28125"/>
+    <col customWidth="1" min="15" max="15" width="12.421875"/>
+    <col customWidth="1" min="16" max="16" width="19.28125"/>
+    <col customWidth="1" min="17" max="17" width="15.57421875"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
@@ -34889,28 +34895,28 @@
       <c r="M1" s="12" t="s">
         <v>25</v>
       </c>
+      <c r="N1" s="12" t="s">
+        <v>1861</v>
+      </c>
       <c r="O1" s="12" t="s">
-        <v>1861</v>
+        <v>41</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>41</v>
+        <v>1862</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="T1" s="12" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="U1" s="12" t="s">
-        <v>1866</v>
-      </c>
-      <c r="V1" s="12" t="s">
         <v>46</v>
       </c>
     </row>
@@ -34936,10 +34942,10 @@
       <c r="K2" s="14" t="s">
         <v>1872</v>
       </c>
-      <c r="M2" s="11"/>
-      <c r="N2" s="15" t="s">
+      <c r="M2" s="15" t="s">
         <v>1873</v>
       </c>
+      <c r="N2" s="11"/>
       <c r="O2" s="11"/>
       <c r="P2" s="11"/>
       <c r="Q2" s="11"/>
@@ -34947,7 +34953,6 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
       <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
     </row>
     <row r="3" ht="15" customHeight="1">
       <c r="B3" s="14" t="s">
@@ -34971,10 +34976,10 @@
       </c>
       <c r="J3" s="14"/>
       <c r="K3" s="16"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="18" t="s">
+      <c r="M3" s="18" t="s">
         <v>1878</v>
       </c>
+      <c r="N3" s="11"/>
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
@@ -34982,7 +34987,6 @@
       <c r="S3" s="11"/>
       <c r="T3" s="11"/>
       <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
     </row>
     <row r="4" ht="15" customHeight="1">
       <c r="B4" s="14" t="s">
@@ -35008,10 +35012,10 @@
       </c>
       <c r="J4" s="14"/>
       <c r="K4" s="16"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="19" t="s">
+      <c r="M4" s="19" t="s">
         <v>1883</v>
       </c>
+      <c r="N4" s="11"/>
       <c r="O4" s="11"/>
       <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
@@ -35019,7 +35023,6 @@
       <c r="S4" s="11"/>
       <c r="T4" s="11"/>
       <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
     </row>
     <row r="5" ht="15" customHeight="1">
       <c r="B5" s="14" t="s">
@@ -35045,10 +35048,10 @@
       </c>
       <c r="J5" s="14"/>
       <c r="K5" s="16"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="19" t="s">
+      <c r="M5" s="19" t="s">
         <v>1887</v>
       </c>
+      <c r="N5" s="11"/>
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
@@ -35056,7 +35059,6 @@
       <c r="S5" s="11"/>
       <c r="T5" s="11"/>
       <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="B6" s="14" t="s">
@@ -35082,10 +35084,10 @@
       </c>
       <c r="J6" s="14"/>
       <c r="K6" s="16"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="19" t="s">
+      <c r="M6" s="19" t="s">
         <v>1891</v>
       </c>
+      <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
@@ -35093,7 +35095,6 @@
       <c r="S6" s="11"/>
       <c r="T6" s="11"/>
       <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="B7" s="14" t="s">
@@ -35121,10 +35122,10 @@
       <c r="K7" s="14" t="s">
         <v>1872</v>
       </c>
-      <c r="M7" s="11"/>
-      <c r="N7" s="19" t="s">
+      <c r="M7" s="19" t="s">
         <v>1896</v>
       </c>
+      <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
@@ -35132,7 +35133,6 @@
       <c r="S7" s="11"/>
       <c r="T7" s="11"/>
       <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="B8" s="14" t="s">
@@ -35158,10 +35158,10 @@
       <c r="K8" s="14" t="s">
         <v>1872</v>
       </c>
-      <c r="M8" s="11"/>
-      <c r="N8" s="19" t="s">
+      <c r="M8" s="19" t="s">
         <v>1900</v>
       </c>
+      <c r="N8" s="11"/>
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
@@ -35169,7 +35169,6 @@
       <c r="S8" s="11"/>
       <c r="T8" s="11"/>
       <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="B9" s="14" t="s">
@@ -35197,10 +35196,10 @@
       <c r="K9" s="14" t="s">
         <v>1904</v>
       </c>
-      <c r="M9" s="11"/>
-      <c r="N9" s="19" t="s">
+      <c r="M9" s="19" t="s">
         <v>1905</v>
       </c>
+      <c r="N9" s="11"/>
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
@@ -35208,7 +35207,6 @@
       <c r="S9" s="11"/>
       <c r="T9" s="11"/>
       <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="B10" s="14" t="s">
@@ -35236,18 +35234,17 @@
       <c r="K10" s="14" t="s">
         <v>1904</v>
       </c>
-      <c r="M10" s="14"/>
-      <c r="N10" s="19" t="s">
+      <c r="M10" s="19" t="s">
         <v>1909</v>
       </c>
+      <c r="N10" s="14"/>
       <c r="O10" s="14"/>
       <c r="P10" s="14"/>
       <c r="Q10" s="14"/>
       <c r="R10" s="14"/>
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="11"/>
+      <c r="U10" s="11"/>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="B11" s="14" t="s">
@@ -35271,10 +35268,10 @@
       <c r="K11" s="14" t="s">
         <v>1904</v>
       </c>
-      <c r="M11" s="11"/>
-      <c r="N11" s="19" t="s">
+      <c r="M11" s="19" t="s">
         <v>1913</v>
       </c>
+      <c r="N11" s="11"/>
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
@@ -35282,7 +35279,6 @@
       <c r="S11" s="11"/>
       <c r="T11" s="11"/>
       <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="B12" s="14" t="s">
@@ -35308,10 +35304,10 @@
       <c r="K12" s="14" t="s">
         <v>1916</v>
       </c>
-      <c r="M12" s="11"/>
-      <c r="N12" s="20" t="s">
+      <c r="M12" s="20" t="s">
         <v>1917</v>
       </c>
+      <c r="N12" s="11"/>
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
@@ -35319,7 +35315,6 @@
       <c r="S12" s="11"/>
       <c r="T12" s="11"/>
       <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="B13" s="14" t="s">
@@ -35345,10 +35340,10 @@
       <c r="K13" s="14" t="s">
         <v>1916</v>
       </c>
-      <c r="M13" s="11"/>
-      <c r="N13" s="21" t="s">
+      <c r="M13" s="21" t="s">
         <v>1920</v>
       </c>
+      <c r="N13" s="11"/>
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
       <c r="Q13" s="11"/>
@@ -35356,7 +35351,6 @@
       <c r="S13" s="11"/>
       <c r="T13" s="11"/>
       <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="B14" s="14" t="s">
@@ -35382,10 +35376,10 @@
       <c r="K14" s="14" t="s">
         <v>1916</v>
       </c>
-      <c r="M14" s="11"/>
-      <c r="N14" s="21" t="s">
+      <c r="M14" s="21" t="s">
         <v>1923</v>
       </c>
+      <c r="N14" s="11"/>
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
       <c r="Q14" s="11"/>
@@ -35393,7 +35387,6 @@
       <c r="S14" s="11"/>
       <c r="T14" s="11"/>
       <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="B15" s="14" t="s">
@@ -35419,10 +35412,10 @@
       <c r="K15" s="14" t="s">
         <v>1926</v>
       </c>
-      <c r="M15" s="11"/>
-      <c r="N15" s="21" t="s">
+      <c r="M15" s="21" t="s">
         <v>1927</v>
       </c>
+      <c r="N15" s="11"/>
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
       <c r="Q15" s="11"/>
@@ -35430,7 +35423,6 @@
       <c r="S15" s="11"/>
       <c r="T15" s="11"/>
       <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="B16" s="14" t="s">
@@ -35456,10 +35448,10 @@
       <c r="K16" s="14" t="s">
         <v>1926</v>
       </c>
-      <c r="M16" s="11"/>
-      <c r="N16" s="21" t="s">
+      <c r="M16" s="21" t="s">
         <v>1930</v>
       </c>
+      <c r="N16" s="11"/>
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
       <c r="Q16" s="11"/>
@@ -35467,7 +35459,6 @@
       <c r="S16" s="11"/>
       <c r="T16" s="11"/>
       <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="B17" s="14" t="s">
@@ -35493,10 +35484,10 @@
       <c r="K17" s="14" t="s">
         <v>1926</v>
       </c>
-      <c r="M17" s="11"/>
-      <c r="N17" s="21" t="s">
+      <c r="M17" s="21" t="s">
         <v>1933</v>
       </c>
+      <c r="N17" s="11"/>
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
@@ -35504,7 +35495,6 @@
       <c r="S17" s="11"/>
       <c r="T17" s="11"/>
       <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="B18" s="14" t="s">
@@ -35530,10 +35520,10 @@
       <c r="K18" s="14" t="s">
         <v>1926</v>
       </c>
-      <c r="M18" s="11"/>
-      <c r="N18" s="21" t="s">
+      <c r="M18" s="21" t="s">
         <v>1936</v>
       </c>
+      <c r="N18" s="11"/>
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
       <c r="Q18" s="11"/>
@@ -35541,7 +35531,6 @@
       <c r="S18" s="11"/>
       <c r="T18" s="11"/>
       <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="B19" s="14" t="s">
@@ -35567,10 +35556,10 @@
       <c r="K19" s="14" t="s">
         <v>1926</v>
       </c>
-      <c r="M19" s="11"/>
-      <c r="N19" s="18" t="s">
+      <c r="M19" s="18" t="s">
         <v>1940</v>
       </c>
+      <c r="N19" s="11"/>
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
@@ -35578,7 +35567,6 @@
       <c r="S19" s="11"/>
       <c r="T19" s="11"/>
       <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="B20" s="14" t="s">
@@ -35606,10 +35594,10 @@
       <c r="K20" s="14" t="s">
         <v>1926</v>
       </c>
-      <c r="M20" s="11"/>
-      <c r="N20" s="19" t="s">
+      <c r="M20" s="19" t="s">
         <v>1944</v>
       </c>
+      <c r="N20" s="11"/>
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
@@ -35617,7 +35605,6 @@
       <c r="S20" s="11"/>
       <c r="T20" s="11"/>
       <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="B21" s="14" t="s">
@@ -35643,10 +35630,10 @@
       <c r="K21" s="14" t="s">
         <v>1926</v>
       </c>
-      <c r="M21" s="11"/>
-      <c r="N21" s="21" t="s">
+      <c r="M21" s="21" t="s">
         <v>1947</v>
       </c>
+      <c r="N21" s="11"/>
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
       <c r="Q21" s="11"/>
@@ -35654,7 +35641,6 @@
       <c r="S21" s="11"/>
       <c r="T21" s="11"/>
       <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="B22" s="14" t="s">
@@ -35682,10 +35668,10 @@
       <c r="K22" s="14" t="s">
         <v>1904</v>
       </c>
-      <c r="M22" s="11"/>
-      <c r="N22" s="21" t="s">
+      <c r="M22" s="21" t="s">
         <v>1951</v>
       </c>
+      <c r="N22" s="11"/>
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
       <c r="Q22" s="11"/>
@@ -35693,7 +35679,6 @@
       <c r="S22" s="11"/>
       <c r="T22" s="11"/>
       <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="B23" s="14" t="s">
@@ -35721,10 +35706,10 @@
       <c r="K23" s="14" t="s">
         <v>1955</v>
       </c>
-      <c r="M23" s="11"/>
-      <c r="N23" s="20" t="s">
+      <c r="M23" s="20" t="s">
         <v>1956</v>
       </c>
+      <c r="N23" s="11"/>
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
       <c r="Q23" s="11"/>
@@ -35732,7 +35717,6 @@
       <c r="S23" s="11"/>
       <c r="T23" s="11"/>
       <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="B24" s="14" t="s">
@@ -35760,10 +35744,10 @@
       <c r="K24" s="14" t="s">
         <v>1955</v>
       </c>
-      <c r="M24" s="11"/>
-      <c r="N24" s="19" t="s">
+      <c r="M24" s="19" t="s">
         <v>1959</v>
       </c>
+      <c r="N24" s="11"/>
       <c r="O24" s="11"/>
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
@@ -35771,7 +35755,6 @@
       <c r="S24" s="11"/>
       <c r="T24" s="11"/>
       <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="B25" s="14" t="s">
@@ -35799,10 +35782,10 @@
       <c r="K25" s="14" t="s">
         <v>1955</v>
       </c>
-      <c r="M25" s="11"/>
-      <c r="N25" s="19" t="s">
+      <c r="M25" s="19" t="s">
         <v>1963</v>
       </c>
+      <c r="N25" s="11"/>
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
@@ -35810,7 +35793,6 @@
       <c r="S25" s="11"/>
       <c r="T25" s="11"/>
       <c r="U25" s="11"/>
-      <c r="V25" s="11"/>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="B26" s="14" t="s">
@@ -35838,10 +35820,10 @@
       <c r="K26" s="14" t="s">
         <v>1955</v>
       </c>
-      <c r="M26" s="11"/>
-      <c r="N26" s="19" t="s">
+      <c r="M26" s="19" t="s">
         <v>1967</v>
       </c>
+      <c r="N26" s="11"/>
       <c r="O26" s="11"/>
       <c r="P26" s="11"/>
       <c r="Q26" s="11"/>
@@ -35849,7 +35831,6 @@
       <c r="S26" s="11"/>
       <c r="T26" s="11"/>
       <c r="U26" s="11"/>
-      <c r="V26" s="11"/>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="B27" s="14" t="s">
@@ -35875,10 +35856,10 @@
       <c r="K27" s="14" t="s">
         <v>1971</v>
       </c>
-      <c r="M27" s="11"/>
-      <c r="N27" s="21" t="s">
+      <c r="M27" s="21" t="s">
         <v>1972</v>
       </c>
+      <c r="N27" s="11"/>
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
@@ -35886,7 +35867,6 @@
       <c r="S27" s="11"/>
       <c r="T27" s="11"/>
       <c r="U27" s="11"/>
-      <c r="V27" s="11"/>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="B28" s="14" t="s">
@@ -35912,10 +35892,10 @@
       <c r="K28" s="14" t="s">
         <v>1971</v>
       </c>
-      <c r="M28" s="11"/>
-      <c r="N28" s="21" t="s">
+      <c r="M28" s="21" t="s">
         <v>1975</v>
       </c>
+      <c r="N28" s="11"/>
       <c r="O28" s="11"/>
       <c r="P28" s="11"/>
       <c r="Q28" s="11"/>
@@ -35923,7 +35903,6 @@
       <c r="S28" s="11"/>
       <c r="T28" s="11"/>
       <c r="U28" s="11"/>
-      <c r="V28" s="11"/>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="B29" s="14" t="s">
@@ -35951,10 +35930,10 @@
       <c r="K29" s="14" t="s">
         <v>1955</v>
       </c>
-      <c r="M29" s="11"/>
-      <c r="N29" s="21" t="s">
+      <c r="M29" s="21" t="s">
         <v>1977</v>
       </c>
+      <c r="N29" s="11"/>
       <c r="O29" s="11"/>
       <c r="P29" s="11"/>
       <c r="Q29" s="11"/>
@@ -35962,7 +35941,6 @@
       <c r="S29" s="11"/>
       <c r="T29" s="11"/>
       <c r="U29" s="11"/>
-      <c r="V29" s="11"/>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="B30" s="14" t="s">
@@ -35990,10 +35968,10 @@
       <c r="K30" s="14" t="s">
         <v>1981</v>
       </c>
-      <c r="M30" s="11"/>
-      <c r="N30" s="21" t="s">
+      <c r="M30" s="21" t="s">
         <v>1982</v>
       </c>
+      <c r="N30" s="11"/>
       <c r="O30" s="11"/>
       <c r="P30" s="11"/>
       <c r="Q30" s="11"/>
@@ -36001,7 +35979,6 @@
       <c r="S30" s="11"/>
       <c r="T30" s="11"/>
       <c r="U30" s="11"/>
-      <c r="V30" s="11"/>
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="B31" s="14" t="s">
@@ -36027,10 +36004,10 @@
       <c r="K31" s="14" t="s">
         <v>1981</v>
       </c>
-      <c r="M31" s="11"/>
-      <c r="N31" s="21" t="s">
+      <c r="M31" s="21" t="s">
         <v>1985</v>
       </c>
+      <c r="N31" s="11"/>
       <c r="O31" s="11"/>
       <c r="P31" s="11"/>
       <c r="Q31" s="11"/>
@@ -36038,7 +36015,6 @@
       <c r="S31" s="11"/>
       <c r="T31" s="11"/>
       <c r="U31" s="11"/>
-      <c r="V31" s="11"/>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="B32" s="14" t="s">
@@ -36066,10 +36042,10 @@
       <c r="K32" s="14" t="s">
         <v>1955</v>
       </c>
-      <c r="M32" s="11"/>
-      <c r="N32" s="21" t="s">
+      <c r="M32" s="21" t="s">
         <v>1988</v>
       </c>
+      <c r="N32" s="11"/>
       <c r="O32" s="11"/>
       <c r="P32" s="11"/>
       <c r="Q32" s="11"/>
@@ -36077,7 +36053,6 @@
       <c r="S32" s="11"/>
       <c r="T32" s="11"/>
       <c r="U32" s="11"/>
-      <c r="V32" s="11"/>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="B33" s="14" t="s">
@@ -36105,18 +36080,17 @@
       <c r="K33" s="14" t="s">
         <v>1955</v>
       </c>
-      <c r="M33" s="16"/>
-      <c r="N33" s="21" t="s">
+      <c r="M33" s="21" t="s">
         <v>1992</v>
       </c>
+      <c r="N33" s="14"/>
       <c r="O33" s="14"/>
       <c r="P33" s="14"/>
       <c r="Q33" s="14"/>
       <c r="R33" s="14"/>
       <c r="S33" s="14"/>
-      <c r="T33" s="14"/>
+      <c r="T33" s="16"/>
       <c r="U33" s="16"/>
-      <c r="V33" s="16"/>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="B34" s="14" t="s">
@@ -36144,10 +36118,10 @@
       <c r="K34" s="14" t="s">
         <v>1955</v>
       </c>
-      <c r="M34" s="11"/>
-      <c r="N34" s="21" t="s">
+      <c r="M34" s="21" t="s">
         <v>1996</v>
       </c>
+      <c r="N34" s="11"/>
       <c r="O34" s="11"/>
       <c r="P34" s="11"/>
       <c r="Q34" s="11"/>
@@ -36155,7 +36129,6 @@
       <c r="S34" s="11"/>
       <c r="T34" s="11"/>
       <c r="U34" s="11"/>
-      <c r="V34" s="11"/>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="B35" s="14" t="s">
@@ -36183,10 +36156,10 @@
       <c r="K35" s="14" t="s">
         <v>1955</v>
       </c>
-      <c r="M35" s="11"/>
-      <c r="N35" s="21" t="s">
+      <c r="M35" s="21" t="s">
         <v>2000</v>
       </c>
+      <c r="N35" s="11"/>
       <c r="O35" s="11"/>
       <c r="P35" s="11"/>
       <c r="Q35" s="11"/>
@@ -36194,7 +36167,6 @@
       <c r="S35" s="11"/>
       <c r="T35" s="11"/>
       <c r="U35" s="11"/>
-      <c r="V35" s="11"/>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="B36" s="14" t="s">
@@ -36222,10 +36194,10 @@
       <c r="K36" s="14" t="s">
         <v>1955</v>
       </c>
-      <c r="M36" s="11"/>
-      <c r="N36" s="21" t="s">
+      <c r="M36" s="21" t="s">
         <v>2003</v>
       </c>
+      <c r="N36" s="11"/>
       <c r="O36" s="11"/>
       <c r="P36" s="11"/>
       <c r="Q36" s="11"/>
@@ -36233,7 +36205,6 @@
       <c r="S36" s="11"/>
       <c r="T36" s="11"/>
       <c r="U36" s="11"/>
-      <c r="V36" s="11"/>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="B37" s="14" t="s">
@@ -36261,10 +36232,10 @@
       <c r="K37" s="14" t="s">
         <v>1955</v>
       </c>
-      <c r="M37" s="11"/>
-      <c r="N37" s="19" t="s">
+      <c r="M37" s="19" t="s">
         <v>2007</v>
       </c>
+      <c r="N37" s="11"/>
       <c r="O37" s="11"/>
       <c r="P37" s="11"/>
       <c r="Q37" s="11"/>
@@ -36272,7 +36243,6 @@
       <c r="S37" s="11"/>
       <c r="T37" s="11"/>
       <c r="U37" s="11"/>
-      <c r="V37" s="11"/>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="B38" s="14" t="s">
@@ -36298,10 +36268,10 @@
       <c r="K38" s="14" t="s">
         <v>2010</v>
       </c>
-      <c r="M38" s="11"/>
-      <c r="N38" s="21" t="s">
+      <c r="M38" s="21" t="s">
         <v>2011</v>
       </c>
+      <c r="N38" s="11"/>
       <c r="O38" s="11"/>
       <c r="P38" s="11"/>
       <c r="Q38" s="11"/>
@@ -36309,7 +36279,6 @@
       <c r="S38" s="11"/>
       <c r="T38" s="11"/>
       <c r="U38" s="11"/>
-      <c r="V38" s="11"/>
     </row>
     <row r="39" ht="15" customHeight="1">
       <c r="B39" s="14" t="s">
@@ -36335,10 +36304,10 @@
       <c r="K39" s="14" t="s">
         <v>2010</v>
       </c>
-      <c r="M39" s="11"/>
-      <c r="N39" s="21" t="s">
+      <c r="M39" s="21" t="s">
         <v>2014</v>
       </c>
+      <c r="N39" s="11"/>
       <c r="O39" s="11"/>
       <c r="P39" s="11"/>
       <c r="Q39" s="11"/>
@@ -36346,7 +36315,6 @@
       <c r="S39" s="11"/>
       <c r="T39" s="11"/>
       <c r="U39" s="11"/>
-      <c r="V39" s="11"/>
     </row>
     <row r="40" ht="15" customHeight="1">
       <c r="B40" s="14" t="s">
@@ -36372,10 +36340,10 @@
       <c r="K40" s="14" t="s">
         <v>2010</v>
       </c>
-      <c r="M40" s="11"/>
-      <c r="N40" s="21" t="s">
+      <c r="M40" s="21" t="s">
         <v>2017</v>
       </c>
+      <c r="N40" s="11"/>
       <c r="O40" s="11"/>
       <c r="P40" s="11"/>
       <c r="Q40" s="11"/>
@@ -36383,7 +36351,6 @@
       <c r="S40" s="11"/>
       <c r="T40" s="11"/>
       <c r="U40" s="11"/>
-      <c r="V40" s="11"/>
     </row>
     <row r="41" ht="15" customHeight="1">
       <c r="B41" s="14" t="s">
@@ -36411,10 +36378,10 @@
       <c r="K41" s="14" t="s">
         <v>1955</v>
       </c>
-      <c r="M41" s="11"/>
-      <c r="N41" s="20" t="s">
+      <c r="M41" s="20" t="s">
         <v>2020</v>
       </c>
+      <c r="N41" s="11"/>
       <c r="O41" s="11"/>
       <c r="P41" s="11"/>
       <c r="Q41" s="11"/>
@@ -36422,7 +36389,6 @@
       <c r="S41" s="11"/>
       <c r="T41" s="11"/>
       <c r="U41" s="11"/>
-      <c r="V41" s="11"/>
     </row>
     <row r="42" ht="15" customHeight="1">
       <c r="B42" s="14" t="s">
@@ -36450,10 +36416,10 @@
       <c r="K42" s="14" t="s">
         <v>1955</v>
       </c>
-      <c r="M42" s="11"/>
-      <c r="N42" s="21" t="s">
+      <c r="M42" s="21" t="s">
         <v>2024</v>
       </c>
+      <c r="N42" s="11"/>
       <c r="O42" s="11"/>
       <c r="P42" s="11"/>
       <c r="Q42" s="11"/>
@@ -36461,7 +36427,6 @@
       <c r="S42" s="11"/>
       <c r="T42" s="11"/>
       <c r="U42" s="11"/>
-      <c r="V42" s="11"/>
     </row>
     <row r="43" ht="15" customHeight="1">
       <c r="B43" s="14" t="s">
@@ -36487,10 +36452,10 @@
       <c r="K43" s="14" t="s">
         <v>2027</v>
       </c>
-      <c r="M43" s="11"/>
-      <c r="N43" s="21" t="s">
+      <c r="M43" s="21" t="s">
         <v>2028</v>
       </c>
+      <c r="N43" s="11"/>
       <c r="O43" s="11"/>
       <c r="P43" s="11"/>
       <c r="Q43" s="11"/>
@@ -36498,7 +36463,6 @@
       <c r="S43" s="11"/>
       <c r="T43" s="11"/>
       <c r="U43" s="11"/>
-      <c r="V43" s="11"/>
     </row>
     <row r="44" ht="15" customHeight="1">
       <c r="B44" s="14" t="s">
@@ -36526,10 +36490,10 @@
       <c r="K44" s="14" t="s">
         <v>1955</v>
       </c>
-      <c r="M44" s="11"/>
-      <c r="N44" s="21" t="s">
+      <c r="M44" s="21" t="s">
         <v>2031</v>
       </c>
+      <c r="N44" s="11"/>
       <c r="O44" s="11"/>
       <c r="P44" s="11"/>
       <c r="Q44" s="11"/>
@@ -36537,7 +36501,6 @@
       <c r="S44" s="11"/>
       <c r="T44" s="11"/>
       <c r="U44" s="11"/>
-      <c r="V44" s="11"/>
     </row>
     <row r="45" ht="15" customHeight="1">
       <c r="B45" s="14" t="s">
@@ -36563,10 +36526,10 @@
       <c r="K45" s="14" t="s">
         <v>2034</v>
       </c>
-      <c r="M45" s="11"/>
-      <c r="N45" s="21" t="s">
+      <c r="M45" s="21" t="s">
         <v>2035</v>
       </c>
+      <c r="N45" s="11"/>
       <c r="O45" s="11"/>
       <c r="P45" s="11"/>
       <c r="Q45" s="11"/>
@@ -36574,7 +36537,6 @@
       <c r="S45" s="11"/>
       <c r="T45" s="11"/>
       <c r="U45" s="11"/>
-      <c r="V45" s="11"/>
     </row>
     <row r="46" ht="15" customHeight="1">
       <c r="B46" s="14" t="s">
@@ -36600,10 +36562,10 @@
       <c r="K46" s="14" t="s">
         <v>2034</v>
       </c>
-      <c r="M46" s="11"/>
-      <c r="N46" s="21" t="s">
+      <c r="M46" s="21" t="s">
         <v>2038</v>
       </c>
+      <c r="N46" s="11"/>
       <c r="O46" s="11"/>
       <c r="P46" s="11"/>
       <c r="Q46" s="11"/>
@@ -36611,7 +36573,6 @@
       <c r="S46" s="11"/>
       <c r="T46" s="11"/>
       <c r="U46" s="11"/>
-      <c r="V46" s="11"/>
     </row>
     <row r="47" ht="15" customHeight="1">
       <c r="B47" s="14" t="s">
@@ -36637,10 +36598,10 @@
       <c r="K47" s="14" t="s">
         <v>2034</v>
       </c>
-      <c r="M47" s="11"/>
-      <c r="N47" s="21" t="s">
+      <c r="M47" s="21" t="s">
         <v>2041</v>
       </c>
+      <c r="N47" s="11"/>
       <c r="O47" s="11"/>
       <c r="P47" s="11"/>
       <c r="Q47" s="11"/>
@@ -36648,7 +36609,6 @@
       <c r="S47" s="11"/>
       <c r="T47" s="11"/>
       <c r="U47" s="11"/>
-      <c r="V47" s="11"/>
     </row>
     <row r="48" ht="15" customHeight="1">
       <c r="B48" s="14" t="s">
@@ -36676,10 +36636,10 @@
       <c r="K48" s="14" t="s">
         <v>1955</v>
       </c>
-      <c r="M48" s="11"/>
-      <c r="N48" s="20" t="s">
+      <c r="M48" s="20" t="s">
         <v>2044</v>
       </c>
+      <c r="N48" s="11"/>
       <c r="O48" s="11"/>
       <c r="P48" s="11"/>
       <c r="Q48" s="11"/>
@@ -36687,7 +36647,6 @@
       <c r="S48" s="11"/>
       <c r="T48" s="11"/>
       <c r="U48" s="11"/>
-      <c r="V48" s="11"/>
     </row>
     <row r="49" ht="15" customHeight="1">
       <c r="B49" s="14" t="s">
@@ -36715,10 +36674,10 @@
       <c r="K49" s="14" t="s">
         <v>1955</v>
       </c>
-      <c r="M49" s="11"/>
-      <c r="N49" s="21" t="s">
+      <c r="M49" s="21" t="s">
         <v>2048</v>
       </c>
+      <c r="N49" s="11"/>
       <c r="O49" s="11"/>
       <c r="P49" s="11"/>
       <c r="Q49" s="11"/>
@@ -36726,13 +36685,12 @@
       <c r="S49" s="11"/>
       <c r="T49" s="11"/>
       <c r="U49" s="11"/>
-      <c r="V49" s="11"/>
     </row>
     <row r="50" ht="15" customHeight="1"/>
     <row r="51" ht="15" customHeight="1"/>
     <row r="52" ht="15" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="D1:V50"/>
+  <autoFilter ref="D1:U50"/>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
@@ -37955,9 +37913,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="26.421875"/>
-    <col customWidth="1" min="2" max="2" width="27.57421875"/>
-    <col customWidth="1" min="3" max="3" width="35.57421875"/>
+    <col customWidth="1" min="1" max="1" width="43.421875"/>
+    <col customWidth="1" min="2" max="2" width="48.421875"/>
+    <col customWidth="1" min="3" max="3" width="22.8515625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -39266,26 +39224,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="db9a8d14-af29-4ea1-acd0-990ad071fa52">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="7cb98d21-b601-4bb8-aa13-ab76027a45c3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BA2B829B0A5D4D429CD0183C682ABCE9" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="655f943f115bee935a220a74bc592cb3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="db9a8d14-af29-4ea1-acd0-990ad071fa52" xmlns:ns3="7cb98d21-b601-4bb8-aa13-ab76027a45c3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c374ad1763b849cc77b34277081ef10e" ns2:_="" ns3:_="">
     <xsd:import namespace="db9a8d14-af29-4ea1-acd0-990ad071fa52"/>
@@ -39522,8 +39460,28 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="db9a8d14-af29-4ea1-acd0-990ad071fa52">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="7cb98d21-b601-4bb8-aa13-ab76027a45c3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9AADAC9B-A23E-46F7-9A03-395DFEBA05BC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B02F6A06-C50D-470A-B688-B13D2BF590EC}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -39531,5 +39489,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B02F6A06-C50D-470A-B688-B13D2BF590EC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9AADAC9B-A23E-46F7-9A03-395DFEBA05BC}"/>
 </file>
--- a/inst/SurveyDesigner_Referential.xlsx
+++ b/inst/SurveyDesigner_Referential.xlsx
@@ -18,14 +18,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">survey!$A$1:$AG$393</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">choices!$A$1:$N$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">indicator!$D$1:$U$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">indicator!$E$1:$V$50</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">indicator_survey!$A$1:$C$104</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">indicator_choices!$B$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">indicator_population!$B$1:$C$97</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">indicator_disaggregation!$A$1:$C$55</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">survey!$A$1:$AG$393</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">choices!$A$1:$N$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">indicator!$D$1:$U$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">indicator!$E$1:$V$50</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">indicator_survey!$A$1:$C$104</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">indicator_choices!$B$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">indicator_population!$B$1:$C$97</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2069" uniqueCount="2069">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2102" uniqueCount="2102">
   <si>
     <t>referential_type</t>
   </si>
@@ -5647,6 +5647,9 @@
     <t xml:space="preserve">Not complete</t>
   </si>
   <si>
+    <t>topic</t>
+  </si>
+  <si>
     <t>repeatvar</t>
   </si>
   <si>
@@ -5669,6 +5672,9 @@
   </si>
   <si>
     <t>link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rights   </t>
   </si>
   <si>
     <t>select_one</t>
@@ -5693,6 +5699,9 @@
     breaks = c(-1, 4, 17, 59, Inf))</t>
   </si>
   <si>
+    <t xml:space="preserve">Trajectory   </t>
+  </si>
+  <si>
     <t>Index</t>
   </si>
   <si>
@@ -5706,6 +5715,9 @@
   </si>
   <si>
     <t>datalist[["S1A"]]$`_index`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intention  </t>
   </si>
   <si>
     <t>oldestHHM</t>
@@ -5731,6 +5743,9 @@
   TRUE  ~ 0)</t>
   </si>
   <si>
+    <t xml:space="preserve">Basic Needs   </t>
+  </si>
+  <si>
     <t>oldestHead</t>
   </si>
   <si>
@@ -5749,6 +5764,9 @@
                                       dplyr::pull(Index) ) ) ~ 1,
   TRUE  ~ 0
 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coping Capacity  </t>
   </si>
   <si>
     <t>householdHead</t>
@@ -5781,6 +5799,9 @@
 )</t>
   </si>
   <si>
+    <t xml:space="preserve">Well-Being   </t>
+  </si>
+  <si>
     <t>genderHH</t>
   </si>
   <si>
@@ -5801,6 +5822,9 @@
   dplyr::pull( S1A.R02)</t>
   </si>
   <si>
+    <t xml:space="preserve">Victimisation   </t>
+  </si>
+  <si>
     <t>ageCohortHH</t>
   </si>
   <si>
@@ -5818,6 +5842,9 @@
   dplyr::pull( HH07_cat)</t>
   </si>
   <si>
+    <t xml:space="preserve">Livelihood   </t>
+  </si>
+  <si>
     <t>health_acc</t>
   </si>
   <si>
@@ -5834,6 +5861,9 @@
   (datalist[["main"]]$health_edu.HEA01 != "98" | datalist[["main"]]$health_edu.HEA01 != "96") &amp;
     datalist[["main"]]$health_edu.HEA03 &lt;= 60 ~ 1, 
   TRUE ~ 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Education   </t>
   </si>
   <si>
     <t>electricity</t>
@@ -5854,6 +5884,9 @@
     TRUE ~ 0)</t>
   </si>
   <si>
+    <t xml:space="preserve">Health-Nutrition   </t>
+  </si>
+  <si>
     <t>numeric</t>
   </si>
   <si>
@@ -5869,6 +5902,9 @@
     datalist[["main"]]$dd.DWA03a == "2" ~ 60)</t>
   </si>
   <si>
+    <t xml:space="preserve">Accountability </t>
+  </si>
+  <si>
     <t>dwa_cond1</t>
   </si>
   <si>
@@ -5880,6 +5916,9 @@
   <si>
     <t xml:space="preserve">dplyr::case_when( datalist[["main"]]$time_tot &gt; 30 ~ 0,
                    TRUE ~ 1)</t>
+  </si>
+  <si>
+    <t>Information</t>
   </si>
   <si>
     <t>dwa_cond2</t>
@@ -5981,6 +6020,9 @@
     <t xml:space="preserve">as.integer(datalist[["main"]]$S2Household.DWE05) /    as.integer( datalist[["main"]]$group_pq4iu88.Household_Size)</t>
   </si>
   <si>
+    <t xml:space="preserve">IA1: Protect</t>
+  </si>
+  <si>
     <t>dwe05_cat</t>
   </si>
   <si>
@@ -5994,6 +6036,9 @@
   as.integer(  datalist[["main"]]$group_pq4iu88.Household_Size) /
   as.integer(    datalist[["main"]]$S2Household.DWE05 ) ) &lt;= 3  ~ 1,
 TRUE ~ 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IA2: Assist</t>
   </si>
   <si>
     <t>dwe09_cat</t>
@@ -6011,6 +6056,9 @@
      (datalist[["main"]]$rent.DWE09 == 3 |
         datalist[["main"]]$rent.DWE09 == 4  ) ) ~ 0,
   datalist[["main"]]$S2Household.DWE08 == 0 ~ NA_real_ )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IA3: Empower</t>
   </si>
   <si>
     <t>shelter</t>
@@ -6036,6 +6084,9 @@
                    TRUE ~ NA_real_ )</t>
   </si>
   <si>
+    <t xml:space="preserve">IA4: Solve</t>
+  </si>
+  <si>
     <t xml:space="preserve">Access to drinking water</t>
   </si>
   <si>
@@ -6053,6 +6104,9 @@
                          datalist[["main"]]$dwa_cond2 == 1 &amp;
                          datalist[["main"]]$dwa_cond3 == 1) ~ 1,
                        TRUE ~ 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OA1: Access/Doc</t>
   </si>
   <si>
     <t xml:space="preserve">Residing in physically safe and secure settlements with access to basic facilities</t>
@@ -6070,6 +6124,9 @@
                      datalist[["main"]]$electricity == 1 &amp;
                      datalist[["main"]]$outcome12_1 == 1 &amp;
                      datalist[["main"]]$health_acc == 1)  ~ 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OA2: Status</t>
   </si>
   <si>
     <t>impact2_3</t>
@@ -6098,6 +6155,9 @@
   TRUE ~ NA_real_ )</t>
   </si>
   <si>
+    <t xml:space="preserve">OA3: Policy/Law</t>
+  </si>
+  <si>
     <t>impact3_3</t>
   </si>
   <si>
@@ -6116,6 +6176,9 @@
   datalist[["main"]]$Individuals.S4Individual.SAF01 == 99  ~ NA_real_)</t>
   </si>
   <si>
+    <t xml:space="preserve">OA4: GBV</t>
+  </si>
+  <si>
     <t>birthCertificate</t>
   </si>
   <si>
@@ -6132,6 +6195,9 @@
   datalist[["S1B"]]$S1B.group_REG04_0to4.REG02 == 0 |
     datalist[["S1B"]]$S1B.group_REG04_0to4.REG02 == 98) ~ 0,
   datalist[["S1B"]]$S1B.group_REG04_0to4.REG02 == 1 ~ 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OA5: Children</t>
   </si>
   <si>
     <t>birthRegistered</t>
@@ -6147,6 +6213,9 @@
   datalist[["S1B"]]$S1B.group_REG04_0to4.REG03 == 99 ~ NA_real_)</t>
   </si>
   <si>
+    <t xml:space="preserve">OA6: Justice</t>
+  </si>
+  <si>
     <t xml:space="preserve">RBM Outcome 1.2 - SDG 16.9.1  -Acceptable &gt;=80; Unacceptable-40-79; critical &lt;40%</t>
   </si>
   <si>
@@ -6155,6 +6224,9 @@
     datalist[["S1B"]]$S1B.ind_age_year &lt;= 5) ~ 1,
   (  datalist[["S1B"]]$birthRegistered == 0 &amp;
        datalist[["S1B"]]$S1B.ind_age_year &lt;= 5) ~ 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OA7: Community</t>
   </si>
   <si>
     <t>document_under5</t>
@@ -6181,6 +6253,9 @@
       datalist[["S1B"]]$S1B.group_REG04_0to4.REG04c == 1 |
       datalist[["S1B"]]$S1B.group_REG04_0to4.REG04e == 1 ) ~ 1,
   TRUE ~ NA_real_)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OA8: Well-being</t>
   </si>
   <si>
     <t>document_above5</t>
@@ -6207,6 +6282,9 @@
   TRUE ~ NA_real_ )</t>
   </si>
   <si>
+    <t xml:space="preserve">OA9: Housing</t>
+  </si>
+  <si>
     <t xml:space="preserve">Has legally recognized documents</t>
   </si>
   <si>
@@ -6218,6 +6296,9 @@
                       datalist[["S1B"]]$document_under5 == 1) ~ 1,
                       (datalist[["S1B"]]$document_above5 == 0 |
                        datalist[["S1B"]]$document_under5 == 0) ~ 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OA10: Health</t>
   </si>
   <si>
     <t>outcome4_1</t>
@@ -6239,6 +6320,9 @@
       datalist[["main"]]$Individuals.S4Individual.GBV01111.GBV01c == 1 |
       datalist[["main"]]$Individuals.S4Individual.GBV01111.GBV01d == 1 ) ~ 0,
   TRUE ~ NA_real_ )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OA11: Education</t>
   </si>
   <si>
     <t>outcome4_2</t>
@@ -6261,6 +6345,9 @@
       datalist[["main"]]$Individuals.S4Individual.VAW01aaaa.VAW01d == 1 ) ~ 0,
   TRUE ~ NA_real_ )
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OA12: WASH</t>
   </si>
   <si>
     <t>outcome8_2</t>
@@ -6290,6 +6377,9 @@
   datalist[["main"]]$energy.COOK01 == 0 ~ NA_real_ )</t>
   </si>
   <si>
+    <t xml:space="preserve">OA13 Livelihood</t>
+  </si>
+  <si>
     <t xml:space="preserve">Living in Habitable and affordable shelter</t>
   </si>
   <si>
@@ -6310,6 +6400,9 @@
                    TRUE ~ NA_real_ )</t>
   </si>
   <si>
+    <t xml:space="preserve">OA14: Return</t>
+  </si>
+  <si>
     <t>outcome9_2</t>
   </si>
   <si>
@@ -6331,6 +6424,9 @@
   TRUE ~ 0)</t>
   </si>
   <si>
+    <t xml:space="preserve">OA15: Resettle</t>
+  </si>
+  <si>
     <t>toi_cond1</t>
   </si>
   <si>
@@ -6346,6 +6442,9 @@
   datalist[["main"]]$sanitary.TOI01 %in%
     c("8", "10", "11", "12", "96")   ~ 0,
   TRUE ~ NA_real_)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OA16: Integrate</t>
   </si>
   <si>
     <t>toi_cond2</t>
@@ -34834,75 +34933,76 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A1" zoomScale="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D31" activeCellId="0" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.8515625"/>
-    <col customWidth="1" min="3" max="3" width="20.57421875"/>
-    <col customWidth="1" min="4" max="4" width="44.00390625"/>
-    <col customWidth="1" min="5" max="5" width="41.28125"/>
-    <col customWidth="1" min="6" max="6" width="14.7109375"/>
-    <col customWidth="1" min="7" max="7" width="18.8515625"/>
-    <col customWidth="1" min="8" max="8" width="40.28515625"/>
-    <col customWidth="1" min="13" max="13" width="22.28125"/>
-    <col customWidth="1" min="14" max="14" width="10.28125"/>
-    <col customWidth="1" min="15" max="15" width="12.421875"/>
-    <col customWidth="1" min="16" max="16" width="19.28125"/>
-    <col customWidth="1" min="17" max="17" width="15.57421875"/>
+    <col customWidth="1" min="1" max="1" width="27.00390625"/>
+    <col customWidth="1" min="2" max="2" width="12.8515625"/>
+    <col customWidth="1" min="4" max="4" width="20.57421875"/>
+    <col customWidth="1" min="5" max="5" width="44.00390625"/>
+    <col customWidth="1" min="6" max="6" width="41.28125"/>
+    <col customWidth="1" min="7" max="7" width="14.7109375"/>
+    <col customWidth="1" min="8" max="8" width="18.8515625"/>
+    <col customWidth="1" min="9" max="9" width="20.7109375"/>
+    <col customWidth="1" min="14" max="14" width="22.28125"/>
+    <col customWidth="1" min="15" max="15" width="10.28125"/>
+    <col customWidth="1" min="16" max="16" width="12.421875"/>
+    <col customWidth="1" min="17" max="17" width="19.28125"/>
+    <col customWidth="1" min="18" max="18" width="15.57421875"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="5" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>978</v>
       </c>
-      <c r="G1" s="13" t="s">
-        <v>1859</v>
-      </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="13" t="s">
         <v>1860</v>
       </c>
       <c r="I1" s="12" t="s">
+        <v>1861</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="12" t="s">
-        <v>1861</v>
-      </c>
       <c r="O1" s="12" t="s">
+        <v>1862</v>
+      </c>
+      <c r="P1" s="12" t="s">
         <v>41</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>1862</v>
       </c>
       <c r="Q1" s="12" t="s">
         <v>1863</v>
@@ -34917,35 +35017,40 @@
         <v>1866</v>
       </c>
       <c r="U1" s="12" t="s">
+        <v>1867</v>
+      </c>
+      <c r="V1" s="12" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1">
-      <c r="B2" s="14" t="s">
-        <v>1867</v>
+      <c r="B2" t="s">
+        <v>1868</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>1869</v>
-      </c>
-      <c r="E2" s="14"/>
+        <v>1870</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>1871</v>
+      </c>
       <c r="F2" s="14"/>
-      <c r="G2" s="14" t="s">
-        <v>1870</v>
-      </c>
+      <c r="G2" s="14"/>
       <c r="H2" s="14" t="s">
-        <v>1871</v>
-      </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14" t="s">
         <v>1872</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="I2" s="14" t="s">
         <v>1873</v>
       </c>
-      <c r="N2" s="11"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14" t="s">
+        <v>1874</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>1875</v>
+      </c>
       <c r="O2" s="11"/>
       <c r="P2" s="11"/>
       <c r="Q2" s="11"/>
@@ -34953,33 +35058,36 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
       <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
     </row>
     <row r="3" ht="15" customHeight="1">
-      <c r="B3" s="14" t="s">
-        <v>1867</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>1874</v>
+      <c r="B3" t="s">
+        <v>1876</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>1869</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>1875</v>
+        <v>1877</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>1876</v>
-      </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="14" t="s">
-        <v>1870</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>1877</v>
-      </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="16"/>
-      <c r="M3" s="18" t="s">
         <v>1878</v>
       </c>
-      <c r="N3" s="11"/>
+      <c r="F3" s="16" t="s">
+        <v>1879</v>
+      </c>
+      <c r="G3" s="16"/>
+      <c r="H3" s="14" t="s">
+        <v>1872</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>1880</v>
+      </c>
+      <c r="K3" s="14"/>
+      <c r="L3" s="16"/>
+      <c r="N3" s="18" t="s">
+        <v>1881</v>
+      </c>
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
@@ -34987,35 +35095,38 @@
       <c r="S3" s="11"/>
       <c r="T3" s="11"/>
       <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
     </row>
     <row r="4" ht="15" customHeight="1">
-      <c r="B4" s="14" t="s">
-        <v>1867</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>1879</v>
+      <c r="B4" t="s">
+        <v>1882</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>1869</v>
       </c>
       <c r="D4" s="16" t="s">
+        <v>1883</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>1884</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>1885</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>1886</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>1872</v>
+      </c>
+      <c r="I4" s="17" t="s">
         <v>1880</v>
       </c>
-      <c r="E4" s="16" t="s">
-        <v>1881</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>1882</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>1870</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>1877</v>
-      </c>
-      <c r="J4" s="14"/>
-      <c r="K4" s="16"/>
-      <c r="M4" s="19" t="s">
-        <v>1883</v>
-      </c>
-      <c r="N4" s="11"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="16"/>
+      <c r="N4" s="19" t="s">
+        <v>1887</v>
+      </c>
       <c r="O4" s="11"/>
       <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
@@ -35023,35 +35134,38 @@
       <c r="S4" s="11"/>
       <c r="T4" s="11"/>
       <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="B5" s="14" t="s">
-        <v>1867</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>1884</v>
+      <c r="B5" t="s">
+        <v>1888</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>1869</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>1885</v>
+        <v>1889</v>
       </c>
       <c r="E5" s="16" t="s">
+        <v>1890</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>1891</v>
+      </c>
+      <c r="G5" s="14" t="s">
         <v>1886</v>
       </c>
-      <c r="F5" s="14" t="s">
-        <v>1882</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>1870</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>1877</v>
-      </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="16"/>
-      <c r="M5" s="19" t="s">
-        <v>1887</v>
-      </c>
-      <c r="N5" s="11"/>
+      <c r="H5" s="14" t="s">
+        <v>1872</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>1880</v>
+      </c>
+      <c r="K5" s="14"/>
+      <c r="L5" s="16"/>
+      <c r="N5" s="19" t="s">
+        <v>1892</v>
+      </c>
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
@@ -35059,35 +35173,38 @@
       <c r="S5" s="11"/>
       <c r="T5" s="11"/>
       <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="B6" s="14" t="s">
-        <v>1867</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>1888</v>
+      <c r="B6" t="s">
+        <v>1893</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>1869</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>1890</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>1882</v>
+        <v>1895</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>1896</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>1870</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>1877</v>
-      </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="16"/>
-      <c r="M6" s="19" t="s">
-        <v>1891</v>
-      </c>
-      <c r="N6" s="11"/>
+        <v>1886</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>1872</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>1880</v>
+      </c>
+      <c r="K6" s="14"/>
+      <c r="L6" s="16"/>
+      <c r="N6" s="19" t="s">
+        <v>1897</v>
+      </c>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
@@ -35095,37 +35212,40 @@
       <c r="S6" s="11"/>
       <c r="T6" s="11"/>
       <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
     </row>
     <row r="7" ht="15" customHeight="1">
-      <c r="B7" s="14" t="s">
-        <v>1867</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>1892</v>
+      <c r="B7" t="s">
+        <v>1898</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>1869</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>1893</v>
+        <v>1899</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>1894</v>
+        <v>1900</v>
       </c>
       <c r="F7" s="16" t="s">
+        <v>1901</v>
+      </c>
+      <c r="G7" s="16" t="s">
         <v>1518</v>
       </c>
-      <c r="G7" s="16" t="s">
-        <v>1895</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>1871</v>
-      </c>
-      <c r="J7" s="16"/>
-      <c r="K7" s="14" t="s">
-        <v>1872</v>
-      </c>
-      <c r="M7" s="19" t="s">
-        <v>1896</v>
-      </c>
-      <c r="N7" s="11"/>
+      <c r="H7" s="16" t="s">
+        <v>1902</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>1873</v>
+      </c>
+      <c r="K7" s="16"/>
+      <c r="L7" s="14" t="s">
+        <v>1874</v>
+      </c>
+      <c r="N7" s="19" t="s">
+        <v>1903</v>
+      </c>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
@@ -35133,35 +35253,38 @@
       <c r="S7" s="11"/>
       <c r="T7" s="11"/>
       <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="B8" s="14" t="s">
-        <v>1867</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>1897</v>
+      <c r="B8" t="s">
+        <v>1904</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>1869</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>1898</v>
+        <v>1905</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>1899</v>
-      </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16" t="s">
-        <v>1895</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>1877</v>
-      </c>
-      <c r="J8" s="16"/>
-      <c r="K8" s="14" t="s">
-        <v>1872</v>
-      </c>
-      <c r="M8" s="19" t="s">
-        <v>1900</v>
-      </c>
-      <c r="N8" s="11"/>
+        <v>1906</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>1907</v>
+      </c>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16" t="s">
+        <v>1902</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>1880</v>
+      </c>
+      <c r="K8" s="16"/>
+      <c r="L8" s="14" t="s">
+        <v>1874</v>
+      </c>
+      <c r="N8" s="19" t="s">
+        <v>1908</v>
+      </c>
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
@@ -35169,37 +35292,40 @@
       <c r="S8" s="11"/>
       <c r="T8" s="11"/>
       <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="B9" s="14" t="s">
-        <v>1867</v>
+      <c r="B9" t="s">
+        <v>1909</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1901</v>
+        <v>1869</v>
       </c>
       <c r="D9" s="14" t="s">
+        <v>1910</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>1911</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>1912</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>1886</v>
+      </c>
+      <c r="H9" s="16" t="s">
         <v>1902</v>
       </c>
-      <c r="E9" s="16" t="s">
-        <v>1903</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>1882</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>1895</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>1877</v>
-      </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="14" t="s">
-        <v>1904</v>
-      </c>
-      <c r="M9" s="19" t="s">
-        <v>1905</v>
-      </c>
-      <c r="N9" s="11"/>
+      <c r="I9" s="17" t="s">
+        <v>1880</v>
+      </c>
+      <c r="K9" s="16"/>
+      <c r="L9" s="14" t="s">
+        <v>1913</v>
+      </c>
+      <c r="N9" s="19" t="s">
+        <v>1914</v>
+      </c>
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
@@ -35207,71 +35333,77 @@
       <c r="S9" s="11"/>
       <c r="T9" s="11"/>
       <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="B10" s="14" t="s">
-        <v>1867</v>
+      <c r="B10" t="s">
+        <v>1915</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1906</v>
+        <v>1869</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>1907</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>1908</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>1882</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>1895</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>1877</v>
-      </c>
-      <c r="J10" s="16"/>
-      <c r="K10" s="14" t="s">
-        <v>1904</v>
-      </c>
-      <c r="M10" s="19" t="s">
-        <v>1909</v>
-      </c>
-      <c r="N10" s="14"/>
+        <v>1916</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>1917</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>1918</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>1886</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>1902</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>1880</v>
+      </c>
+      <c r="K10" s="16"/>
+      <c r="L10" s="14" t="s">
+        <v>1913</v>
+      </c>
+      <c r="N10" s="19" t="s">
+        <v>1919</v>
+      </c>
       <c r="O10" s="14"/>
       <c r="P10" s="14"/>
       <c r="Q10" s="14"/>
       <c r="R10" s="14"/>
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
-      <c r="U10" s="11"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="11"/>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="B11" s="14" t="s">
-        <v>1910</v>
+      <c r="B11" t="s">
+        <v>1920</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>1911</v>
+        <v>1921</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>1912</v>
-      </c>
-      <c r="E11" s="14"/>
+        <v>1922</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>1923</v>
+      </c>
       <c r="F11" s="14"/>
-      <c r="G11" s="14" t="s">
-        <v>1895</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>1877</v>
-      </c>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14" t="s">
-        <v>1904</v>
-      </c>
-      <c r="M11" s="19" t="s">
+      <c r="G11" s="14"/>
+      <c r="H11" s="14" t="s">
+        <v>1902</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>1880</v>
+      </c>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14" t="s">
         <v>1913</v>
       </c>
-      <c r="N11" s="11"/>
+      <c r="N11" s="19" t="s">
+        <v>1924</v>
+      </c>
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
@@ -35279,35 +35411,38 @@
       <c r="S11" s="11"/>
       <c r="T11" s="11"/>
       <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
     </row>
     <row r="12" ht="15" customHeight="1">
-      <c r="B12" s="14" t="s">
-        <v>1867</v>
+      <c r="B12" t="s">
+        <v>1925</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>1914</v>
+        <v>1869</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>1915</v>
-      </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14" t="s">
-        <v>1882</v>
-      </c>
+        <v>1926</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>1927</v>
+      </c>
+      <c r="F12" s="14"/>
       <c r="G12" s="14" t="s">
-        <v>1895</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>1877</v>
-      </c>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14" t="s">
-        <v>1916</v>
-      </c>
-      <c r="M12" s="20" t="s">
-        <v>1917</v>
-      </c>
-      <c r="N12" s="11"/>
+        <v>1886</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>1902</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>1880</v>
+      </c>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14" t="s">
+        <v>1928</v>
+      </c>
+      <c r="N12" s="20" t="s">
+        <v>1929</v>
+      </c>
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
@@ -35315,35 +35450,38 @@
       <c r="S12" s="11"/>
       <c r="T12" s="11"/>
       <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
     </row>
     <row r="13" ht="15" customHeight="1">
-      <c r="B13" s="14" t="s">
-        <v>1867</v>
+      <c r="B13" t="s">
+        <v>1930</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>1918</v>
+        <v>1869</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>1919</v>
-      </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14" t="s">
-        <v>1882</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>1895</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>1877</v>
-      </c>
-      <c r="J13" s="16"/>
-      <c r="K13" s="14" t="s">
-        <v>1916</v>
-      </c>
-      <c r="M13" s="21" t="s">
-        <v>1920</v>
-      </c>
-      <c r="N13" s="11"/>
+        <v>1931</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>1932</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14" t="s">
+        <v>1886</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>1902</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>1880</v>
+      </c>
+      <c r="K13" s="16"/>
+      <c r="L13" s="14" t="s">
+        <v>1928</v>
+      </c>
+      <c r="N13" s="21" t="s">
+        <v>1933</v>
+      </c>
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
       <c r="Q13" s="11"/>
@@ -35351,35 +35489,35 @@
       <c r="S13" s="11"/>
       <c r="T13" s="11"/>
       <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
     </row>
     <row r="14" ht="15" customHeight="1">
-      <c r="B14" s="14" t="s">
-        <v>1867</v>
-      </c>
       <c r="C14" s="14" t="s">
-        <v>1921</v>
+        <v>1869</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>1922</v>
-      </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14" t="s">
-        <v>1882</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>1895</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>1877</v>
-      </c>
-      <c r="J14" s="16"/>
-      <c r="K14" s="14" t="s">
-        <v>1916</v>
-      </c>
-      <c r="M14" s="21" t="s">
-        <v>1923</v>
-      </c>
-      <c r="N14" s="11"/>
+        <v>1934</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>1935</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14" t="s">
+        <v>1886</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>1902</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>1880</v>
+      </c>
+      <c r="K14" s="16"/>
+      <c r="L14" s="14" t="s">
+        <v>1928</v>
+      </c>
+      <c r="N14" s="21" t="s">
+        <v>1936</v>
+      </c>
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
       <c r="Q14" s="11"/>
@@ -35387,35 +35525,35 @@
       <c r="S14" s="11"/>
       <c r="T14" s="11"/>
       <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
     </row>
     <row r="15" ht="15" customHeight="1">
-      <c r="B15" s="14" t="s">
-        <v>1867</v>
-      </c>
       <c r="C15" s="14" t="s">
-        <v>1924</v>
+        <v>1869</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>1925</v>
-      </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14" t="s">
-        <v>1882</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>1895</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>1877</v>
-      </c>
-      <c r="J15" s="16"/>
-      <c r="K15" s="14" t="s">
-        <v>1926</v>
-      </c>
-      <c r="M15" s="21" t="s">
-        <v>1927</v>
-      </c>
-      <c r="N15" s="11"/>
+        <v>1937</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>1938</v>
+      </c>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14" t="s">
+        <v>1886</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>1902</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>1880</v>
+      </c>
+      <c r="K15" s="16"/>
+      <c r="L15" s="14" t="s">
+        <v>1939</v>
+      </c>
+      <c r="N15" s="21" t="s">
+        <v>1940</v>
+      </c>
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
       <c r="Q15" s="11"/>
@@ -35423,35 +35561,35 @@
       <c r="S15" s="11"/>
       <c r="T15" s="11"/>
       <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
     </row>
     <row r="16" ht="15" customHeight="1">
-      <c r="B16" s="14" t="s">
-        <v>1867</v>
-      </c>
       <c r="C16" s="14" t="s">
-        <v>1928</v>
+        <v>1869</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>1929</v>
-      </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14" t="s">
-        <v>1882</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>1895</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>1877</v>
-      </c>
-      <c r="J16" s="16"/>
-      <c r="K16" s="14" t="s">
-        <v>1926</v>
-      </c>
-      <c r="M16" s="21" t="s">
-        <v>1930</v>
-      </c>
-      <c r="N16" s="11"/>
+        <v>1941</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>1942</v>
+      </c>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14" t="s">
+        <v>1886</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>1902</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>1880</v>
+      </c>
+      <c r="K16" s="16"/>
+      <c r="L16" s="14" t="s">
+        <v>1939</v>
+      </c>
+      <c r="N16" s="21" t="s">
+        <v>1943</v>
+      </c>
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
       <c r="Q16" s="11"/>
@@ -35459,35 +35597,35 @@
       <c r="S16" s="11"/>
       <c r="T16" s="11"/>
       <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
     </row>
     <row r="17" ht="15" customHeight="1">
-      <c r="B17" s="14" t="s">
-        <v>1867</v>
-      </c>
       <c r="C17" s="14" t="s">
-        <v>1931</v>
+        <v>1869</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>1932</v>
-      </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14" t="s">
-        <v>1882</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>1895</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>1877</v>
-      </c>
-      <c r="J17" s="16"/>
-      <c r="K17" s="14" t="s">
-        <v>1926</v>
-      </c>
-      <c r="M17" s="21" t="s">
-        <v>1933</v>
-      </c>
-      <c r="N17" s="11"/>
+        <v>1944</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>1945</v>
+      </c>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14" t="s">
+        <v>1886</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>1902</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>1880</v>
+      </c>
+      <c r="K17" s="16"/>
+      <c r="L17" s="14" t="s">
+        <v>1939</v>
+      </c>
+      <c r="N17" s="21" t="s">
+        <v>1946</v>
+      </c>
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
@@ -35495,35 +35633,35 @@
       <c r="S17" s="11"/>
       <c r="T17" s="11"/>
       <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
     </row>
     <row r="18" ht="15" customHeight="1">
-      <c r="B18" s="14" t="s">
-        <v>1867</v>
-      </c>
       <c r="C18" s="14" t="s">
-        <v>1934</v>
+        <v>1869</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>1935</v>
-      </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14" t="s">
-        <v>1882</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>1895</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>1877</v>
-      </c>
-      <c r="J18" s="16"/>
-      <c r="K18" s="14" t="s">
-        <v>1926</v>
-      </c>
-      <c r="M18" s="21" t="s">
-        <v>1936</v>
-      </c>
-      <c r="N18" s="11"/>
+        <v>1947</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>1948</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14" t="s">
+        <v>1886</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>1902</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>1880</v>
+      </c>
+      <c r="K18" s="16"/>
+      <c r="L18" s="14" t="s">
+        <v>1939</v>
+      </c>
+      <c r="N18" s="21" t="s">
+        <v>1949</v>
+      </c>
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
       <c r="Q18" s="11"/>
@@ -35531,35 +35669,35 @@
       <c r="S18" s="11"/>
       <c r="T18" s="11"/>
       <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
     </row>
     <row r="19" ht="15" customHeight="1">
-      <c r="B19" s="14" t="s">
-        <v>1910</v>
-      </c>
       <c r="C19" s="14" t="s">
-        <v>1937</v>
+        <v>1921</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>1938</v>
-      </c>
-      <c r="E19" s="16" t="s">
+        <v>1950</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>1951</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>1952</v>
+      </c>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16" t="s">
+        <v>1902</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>1880</v>
+      </c>
+      <c r="K19" s="16"/>
+      <c r="L19" s="14" t="s">
         <v>1939</v>
       </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16" t="s">
-        <v>1895</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>1877</v>
-      </c>
-      <c r="J19" s="16"/>
-      <c r="K19" s="14" t="s">
-        <v>1926</v>
-      </c>
-      <c r="M19" s="18" t="s">
-        <v>1940</v>
-      </c>
-      <c r="N19" s="11"/>
+      <c r="N19" s="18" t="s">
+        <v>1953</v>
+      </c>
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
@@ -35567,37 +35705,40 @@
       <c r="S19" s="11"/>
       <c r="T19" s="11"/>
       <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
     </row>
     <row r="20" ht="15" customHeight="1">
-      <c r="B20" s="14" t="s">
-        <v>1867</v>
+      <c r="A20" t="s">
+        <v>1954</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1941</v>
+        <v>1869</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>1942</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>1943</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>1882</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>1895</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>1877</v>
-      </c>
-      <c r="J20" s="16"/>
-      <c r="K20" s="14" t="s">
-        <v>1926</v>
-      </c>
-      <c r="M20" s="19" t="s">
-        <v>1944</v>
-      </c>
-      <c r="N20" s="11"/>
+        <v>1955</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>1956</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>1957</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>1886</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>1902</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>1880</v>
+      </c>
+      <c r="K20" s="16"/>
+      <c r="L20" s="14" t="s">
+        <v>1939</v>
+      </c>
+      <c r="N20" s="19" t="s">
+        <v>1958</v>
+      </c>
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
@@ -35605,35 +35746,38 @@
       <c r="S20" s="11"/>
       <c r="T20" s="11"/>
       <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
     </row>
     <row r="21" ht="15" customHeight="1">
-      <c r="B21" s="14" t="s">
-        <v>1867</v>
+      <c r="A21" t="s">
+        <v>1959</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1945</v>
+        <v>1869</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>1946</v>
-      </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14" t="s">
-        <v>1882</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>1895</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>1877</v>
-      </c>
-      <c r="J21" s="16"/>
-      <c r="K21" s="14" t="s">
-        <v>1926</v>
-      </c>
-      <c r="M21" s="21" t="s">
-        <v>1947</v>
-      </c>
-      <c r="N21" s="11"/>
+        <v>1960</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>1961</v>
+      </c>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14" t="s">
+        <v>1886</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>1902</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>1880</v>
+      </c>
+      <c r="K21" s="16"/>
+      <c r="L21" s="14" t="s">
+        <v>1939</v>
+      </c>
+      <c r="N21" s="21" t="s">
+        <v>1962</v>
+      </c>
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
       <c r="Q21" s="11"/>
@@ -35641,37 +35785,40 @@
       <c r="S21" s="11"/>
       <c r="T21" s="11"/>
       <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
     </row>
     <row r="22" ht="15" customHeight="1">
-      <c r="B22" s="14" t="s">
-        <v>1867</v>
+      <c r="A22" t="s">
+        <v>1963</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1948</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>1949</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>1950</v>
+        <v>1869</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>1964</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>1965</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>1882</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>1895</v>
-      </c>
-      <c r="H22" s="17" t="s">
-        <v>1877</v>
-      </c>
-      <c r="J22" s="16"/>
-      <c r="K22" s="14" t="s">
-        <v>1904</v>
-      </c>
-      <c r="M22" s="21" t="s">
-        <v>1951</v>
-      </c>
-      <c r="N22" s="11"/>
+        <v>1966</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>1886</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>1902</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>1880</v>
+      </c>
+      <c r="K22" s="16"/>
+      <c r="L22" s="14" t="s">
+        <v>1913</v>
+      </c>
+      <c r="N22" s="21" t="s">
+        <v>1967</v>
+      </c>
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
       <c r="Q22" s="11"/>
@@ -35679,37 +35826,43 @@
       <c r="S22" s="11"/>
       <c r="T22" s="11"/>
       <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
     </row>
     <row r="23" ht="15" customHeight="1">
-      <c r="B23" s="14" t="s">
-        <v>1867</v>
+      <c r="A23" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>1888</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1916</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>1952</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>1953</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>1882</v>
+        <v>1869</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>1928</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>1969</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>1970</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>1895</v>
-      </c>
-      <c r="H23" s="17" t="s">
-        <v>1954</v>
-      </c>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14" t="s">
-        <v>1955</v>
-      </c>
-      <c r="M23" s="20" t="s">
-        <v>1956</v>
-      </c>
-      <c r="N23" s="11"/>
+        <v>1886</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>1902</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>1971</v>
+      </c>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14" t="s">
+        <v>1972</v>
+      </c>
+      <c r="N23" s="20" t="s">
+        <v>1973</v>
+      </c>
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
       <c r="Q23" s="11"/>
@@ -35717,37 +35870,40 @@
       <c r="S23" s="11"/>
       <c r="T23" s="11"/>
       <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
     </row>
     <row r="24" ht="15" customHeight="1">
-      <c r="B24" s="14" t="s">
-        <v>1867</v>
+      <c r="A24" t="s">
+        <v>1974</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>1904</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>1957</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>1958</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>1882</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>1895</v>
-      </c>
-      <c r="H24" s="17" t="s">
-        <v>1954</v>
-      </c>
-      <c r="J24" s="16"/>
-      <c r="K24" s="14" t="s">
-        <v>1955</v>
-      </c>
-      <c r="M24" s="19" t="s">
-        <v>1959</v>
-      </c>
-      <c r="N24" s="11"/>
+        <v>1869</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>1913</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>1975</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>1976</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>1886</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>1902</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>1971</v>
+      </c>
+      <c r="K24" s="16"/>
+      <c r="L24" s="14" t="s">
+        <v>1972</v>
+      </c>
+      <c r="N24" s="19" t="s">
+        <v>1977</v>
+      </c>
       <c r="O24" s="11"/>
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
@@ -35755,37 +35911,40 @@
       <c r="S24" s="11"/>
       <c r="T24" s="11"/>
       <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
     </row>
     <row r="25" ht="15" customHeight="1">
-      <c r="B25" s="14" t="s">
-        <v>1867</v>
+      <c r="A25" t="s">
+        <v>1978</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1960</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>1961</v>
-      </c>
-      <c r="E25" s="25" t="s">
-        <v>1962</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>1882</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>1895</v>
-      </c>
-      <c r="H25" s="17" t="s">
-        <v>1954</v>
-      </c>
-      <c r="J25" s="16"/>
-      <c r="K25" s="14" t="s">
-        <v>1955</v>
-      </c>
-      <c r="M25" s="19" t="s">
-        <v>1963</v>
-      </c>
-      <c r="N25" s="11"/>
+        <v>1869</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>1979</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>1980</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>1981</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>1886</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>1902</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>1971</v>
+      </c>
+      <c r="K25" s="16"/>
+      <c r="L25" s="14" t="s">
+        <v>1972</v>
+      </c>
+      <c r="N25" s="19" t="s">
+        <v>1982</v>
+      </c>
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
@@ -35793,37 +35952,40 @@
       <c r="S25" s="11"/>
       <c r="T25" s="11"/>
       <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
     </row>
     <row r="26" ht="15" customHeight="1">
-      <c r="B26" s="14" t="s">
-        <v>1867</v>
+      <c r="A26" t="s">
+        <v>1983</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1964</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>1965</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>1966</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>1882</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>1895</v>
-      </c>
-      <c r="H26" s="17" t="s">
-        <v>1954</v>
-      </c>
-      <c r="J26" s="16"/>
-      <c r="K26" s="14" t="s">
-        <v>1955</v>
-      </c>
-      <c r="M26" s="19" t="s">
-        <v>1967</v>
-      </c>
-      <c r="N26" s="11"/>
+        <v>1869</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>1984</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>1985</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>1986</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>1886</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>1902</v>
+      </c>
+      <c r="I26" s="17" t="s">
+        <v>1971</v>
+      </c>
+      <c r="K26" s="16"/>
+      <c r="L26" s="14" t="s">
+        <v>1972</v>
+      </c>
+      <c r="N26" s="19" t="s">
+        <v>1987</v>
+      </c>
       <c r="O26" s="11"/>
       <c r="P26" s="11"/>
       <c r="Q26" s="11"/>
@@ -35831,35 +35993,38 @@
       <c r="S26" s="11"/>
       <c r="T26" s="11"/>
       <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
     </row>
     <row r="27" ht="15" customHeight="1">
-      <c r="B27" s="14" t="s">
-        <v>1867</v>
+      <c r="A27" t="s">
+        <v>1988</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>1968</v>
+        <v>1869</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>1969</v>
-      </c>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14" t="s">
-        <v>1882</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>1970</v>
-      </c>
-      <c r="H27" s="17" t="s">
-        <v>1877</v>
-      </c>
-      <c r="J27" s="16"/>
-      <c r="K27" s="14" t="s">
-        <v>1971</v>
-      </c>
-      <c r="M27" s="21" t="s">
-        <v>1972</v>
-      </c>
-      <c r="N27" s="11"/>
+        <v>1989</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>1990</v>
+      </c>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14" t="s">
+        <v>1886</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>1991</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>1880</v>
+      </c>
+      <c r="K27" s="16"/>
+      <c r="L27" s="14" t="s">
+        <v>1992</v>
+      </c>
+      <c r="N27" s="21" t="s">
+        <v>1993</v>
+      </c>
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
@@ -35867,35 +36032,38 @@
       <c r="S27" s="11"/>
       <c r="T27" s="11"/>
       <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
     </row>
     <row r="28" ht="15" customHeight="1">
-      <c r="B28" s="14" t="s">
-        <v>1867</v>
+      <c r="A28" t="s">
+        <v>1994</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>1973</v>
+        <v>1869</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>1974</v>
-      </c>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14" t="s">
-        <v>1882</v>
-      </c>
-      <c r="G28" s="16" t="s">
-        <v>1970</v>
-      </c>
-      <c r="H28" s="17" t="s">
-        <v>1877</v>
-      </c>
-      <c r="J28" s="16"/>
-      <c r="K28" s="14" t="s">
-        <v>1971</v>
-      </c>
-      <c r="M28" s="21" t="s">
-        <v>1975</v>
-      </c>
-      <c r="N28" s="11"/>
+        <v>1995</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>1996</v>
+      </c>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14" t="s">
+        <v>1886</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>1991</v>
+      </c>
+      <c r="I28" s="17" t="s">
+        <v>1880</v>
+      </c>
+      <c r="K28" s="16"/>
+      <c r="L28" s="14" t="s">
+        <v>1992</v>
+      </c>
+      <c r="N28" s="21" t="s">
+        <v>1997</v>
+      </c>
       <c r="O28" s="11"/>
       <c r="P28" s="11"/>
       <c r="Q28" s="11"/>
@@ -35903,37 +36071,40 @@
       <c r="S28" s="11"/>
       <c r="T28" s="11"/>
       <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
     </row>
     <row r="29" ht="15" customHeight="1">
-      <c r="B29" s="14" t="s">
-        <v>1867</v>
+      <c r="A29" t="s">
+        <v>1998</v>
       </c>
       <c r="C29" s="14" t="s">
+        <v>1869</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>1992</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>1996</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>1999</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>1886</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>1991</v>
+      </c>
+      <c r="I29" s="17" t="s">
         <v>1971</v>
       </c>
-      <c r="D29" s="23" t="s">
-        <v>1974</v>
-      </c>
-      <c r="E29" s="24" t="s">
-        <v>1976</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>1882</v>
-      </c>
-      <c r="G29" s="16" t="s">
-        <v>1970</v>
-      </c>
-      <c r="H29" s="17" t="s">
-        <v>1954</v>
-      </c>
-      <c r="J29" s="16"/>
-      <c r="K29" s="14" t="s">
-        <v>1955</v>
-      </c>
-      <c r="M29" s="21" t="s">
-        <v>1977</v>
-      </c>
-      <c r="N29" s="11"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="14" t="s">
+        <v>1972</v>
+      </c>
+      <c r="N29" s="21" t="s">
+        <v>2000</v>
+      </c>
       <c r="O29" s="11"/>
       <c r="P29" s="11"/>
       <c r="Q29" s="11"/>
@@ -35941,37 +36112,40 @@
       <c r="S29" s="11"/>
       <c r="T29" s="11"/>
       <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
     </row>
     <row r="30" ht="15" customHeight="1">
-      <c r="B30" s="14" t="s">
-        <v>1867</v>
+      <c r="A30" t="s">
+        <v>2001</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>1978</v>
+        <v>1869</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>1979</v>
+        <v>2002</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>1980</v>
+        <v>2003</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>1882</v>
-      </c>
-      <c r="G30" s="16" t="s">
-        <v>1970</v>
-      </c>
-      <c r="H30" s="17" t="s">
-        <v>1877</v>
-      </c>
-      <c r="J30" s="16"/>
-      <c r="K30" s="14" t="s">
-        <v>1981</v>
-      </c>
-      <c r="M30" s="21" t="s">
-        <v>1982</v>
-      </c>
-      <c r="N30" s="11"/>
+        <v>2004</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>1886</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>1991</v>
+      </c>
+      <c r="I30" s="17" t="s">
+        <v>1880</v>
+      </c>
+      <c r="K30" s="16"/>
+      <c r="L30" s="14" t="s">
+        <v>2005</v>
+      </c>
+      <c r="N30" s="21" t="s">
+        <v>2006</v>
+      </c>
       <c r="O30" s="11"/>
       <c r="P30" s="11"/>
       <c r="Q30" s="11"/>
@@ -35979,35 +36153,38 @@
       <c r="S30" s="11"/>
       <c r="T30" s="11"/>
       <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
     </row>
     <row r="31" ht="15" customHeight="1">
-      <c r="B31" s="14" t="s">
-        <v>1867</v>
+      <c r="A31" t="s">
+        <v>2007</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>1983</v>
+        <v>1869</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>1984</v>
-      </c>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14" t="s">
-        <v>1882</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>1970</v>
-      </c>
-      <c r="H31" s="17" t="s">
-        <v>1877</v>
-      </c>
-      <c r="J31" s="16"/>
-      <c r="K31" s="14" t="s">
-        <v>1981</v>
-      </c>
-      <c r="M31" s="21" t="s">
-        <v>1985</v>
-      </c>
-      <c r="N31" s="11"/>
+        <v>2008</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>2009</v>
+      </c>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14" t="s">
+        <v>1886</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>1991</v>
+      </c>
+      <c r="I31" s="17" t="s">
+        <v>1880</v>
+      </c>
+      <c r="K31" s="16"/>
+      <c r="L31" s="14" t="s">
+        <v>2005</v>
+      </c>
+      <c r="N31" s="21" t="s">
+        <v>2010</v>
+      </c>
       <c r="O31" s="11"/>
       <c r="P31" s="11"/>
       <c r="Q31" s="11"/>
@@ -36015,37 +36192,40 @@
       <c r="S31" s="11"/>
       <c r="T31" s="11"/>
       <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
     </row>
     <row r="32" ht="15" customHeight="1">
-      <c r="B32" s="14" t="s">
-        <v>1867</v>
+      <c r="A32" t="s">
+        <v>2011</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1981</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>1986</v>
-      </c>
-      <c r="E32" s="24" t="s">
-        <v>1987</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>1882</v>
-      </c>
-      <c r="G32" s="16" t="s">
-        <v>1970</v>
-      </c>
-      <c r="H32" s="17" t="s">
-        <v>1954</v>
-      </c>
-      <c r="J32" s="16"/>
-      <c r="K32" s="14" t="s">
-        <v>1955</v>
-      </c>
-      <c r="M32" s="21" t="s">
-        <v>1988</v>
-      </c>
-      <c r="N32" s="11"/>
+        <v>1869</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>2005</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>2012</v>
+      </c>
+      <c r="F32" s="24" t="s">
+        <v>2013</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>1886</v>
+      </c>
+      <c r="H32" s="16" t="s">
+        <v>1991</v>
+      </c>
+      <c r="I32" s="17" t="s">
+        <v>1971</v>
+      </c>
+      <c r="K32" s="16"/>
+      <c r="L32" s="14" t="s">
+        <v>1972</v>
+      </c>
+      <c r="N32" s="21" t="s">
+        <v>2014</v>
+      </c>
       <c r="O32" s="11"/>
       <c r="P32" s="11"/>
       <c r="Q32" s="11"/>
@@ -36053,75 +36233,81 @@
       <c r="S32" s="11"/>
       <c r="T32" s="11"/>
       <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
     </row>
     <row r="33" ht="15" customHeight="1">
-      <c r="B33" s="14" t="s">
-        <v>1867</v>
+      <c r="A33" t="s">
+        <v>2015</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1989</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>1990</v>
-      </c>
-      <c r="E33" s="25" t="s">
-        <v>1991</v>
-      </c>
-      <c r="F33" s="16" t="s">
-        <v>1882</v>
+        <v>1869</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>2016</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>2017</v>
+      </c>
+      <c r="F33" s="25" t="s">
+        <v>2018</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>1895</v>
-      </c>
-      <c r="H33" s="17" t="s">
-        <v>1954</v>
-      </c>
-      <c r="J33" s="16"/>
-      <c r="K33" s="14" t="s">
-        <v>1955</v>
-      </c>
-      <c r="M33" s="21" t="s">
-        <v>1992</v>
-      </c>
-      <c r="N33" s="14"/>
+        <v>1886</v>
+      </c>
+      <c r="H33" s="16" t="s">
+        <v>1902</v>
+      </c>
+      <c r="I33" s="17" t="s">
+        <v>1971</v>
+      </c>
+      <c r="K33" s="16"/>
+      <c r="L33" s="14" t="s">
+        <v>1972</v>
+      </c>
+      <c r="N33" s="21" t="s">
+        <v>2019</v>
+      </c>
       <c r="O33" s="14"/>
       <c r="P33" s="14"/>
       <c r="Q33" s="14"/>
       <c r="R33" s="14"/>
       <c r="S33" s="14"/>
-      <c r="T33" s="16"/>
+      <c r="T33" s="14"/>
       <c r="U33" s="16"/>
+      <c r="V33" s="16"/>
     </row>
     <row r="34" ht="15" customHeight="1">
-      <c r="B34" s="14" t="s">
-        <v>1867</v>
+      <c r="A34" t="s">
+        <v>2020</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1993</v>
-      </c>
-      <c r="D34" s="23" t="s">
-        <v>1994</v>
-      </c>
-      <c r="E34" s="24" t="s">
-        <v>1995</v>
-      </c>
-      <c r="F34" s="14" t="s">
-        <v>1882</v>
-      </c>
-      <c r="G34" s="16" t="s">
-        <v>1895</v>
-      </c>
-      <c r="H34" s="17" t="s">
-        <v>1954</v>
-      </c>
-      <c r="J34" s="16"/>
-      <c r="K34" s="14" t="s">
-        <v>1955</v>
-      </c>
-      <c r="M34" s="21" t="s">
-        <v>1996</v>
-      </c>
-      <c r="N34" s="11"/>
+        <v>1869</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>2021</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>2022</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>2023</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>1886</v>
+      </c>
+      <c r="H34" s="16" t="s">
+        <v>1902</v>
+      </c>
+      <c r="I34" s="17" t="s">
+        <v>1971</v>
+      </c>
+      <c r="K34" s="16"/>
+      <c r="L34" s="14" t="s">
+        <v>1972</v>
+      </c>
+      <c r="N34" s="21" t="s">
+        <v>2024</v>
+      </c>
       <c r="O34" s="11"/>
       <c r="P34" s="11"/>
       <c r="Q34" s="11"/>
@@ -36129,37 +36315,40 @@
       <c r="S34" s="11"/>
       <c r="T34" s="11"/>
       <c r="U34" s="11"/>
+      <c r="V34" s="11"/>
     </row>
     <row r="35" ht="15" customHeight="1">
-      <c r="B35" s="14" t="s">
-        <v>1867</v>
+      <c r="A35" t="s">
+        <v>2025</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>1997</v>
-      </c>
-      <c r="D35" s="23" t="s">
-        <v>1998</v>
-      </c>
-      <c r="E35" s="24" t="s">
-        <v>1999</v>
-      </c>
-      <c r="F35" s="14" t="s">
-        <v>1882</v>
-      </c>
-      <c r="G35" s="16" t="s">
-        <v>1895</v>
-      </c>
-      <c r="H35" s="17" t="s">
-        <v>1954</v>
-      </c>
-      <c r="J35" s="16"/>
-      <c r="K35" s="14" t="s">
-        <v>1955</v>
-      </c>
-      <c r="M35" s="21" t="s">
-        <v>2000</v>
-      </c>
-      <c r="N35" s="11"/>
+        <v>1869</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>2026</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>2027</v>
+      </c>
+      <c r="F35" s="24" t="s">
+        <v>2028</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>1886</v>
+      </c>
+      <c r="H35" s="16" t="s">
+        <v>1902</v>
+      </c>
+      <c r="I35" s="17" t="s">
+        <v>1971</v>
+      </c>
+      <c r="K35" s="16"/>
+      <c r="L35" s="14" t="s">
+        <v>1972</v>
+      </c>
+      <c r="N35" s="21" t="s">
+        <v>2029</v>
+      </c>
       <c r="O35" s="11"/>
       <c r="P35" s="11"/>
       <c r="Q35" s="11"/>
@@ -36167,37 +36356,40 @@
       <c r="S35" s="11"/>
       <c r="T35" s="11"/>
       <c r="U35" s="11"/>
+      <c r="V35" s="11"/>
     </row>
     <row r="36" ht="15" customHeight="1">
-      <c r="B36" s="14" t="s">
-        <v>1867</v>
+      <c r="A36" t="s">
+        <v>2030</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1926</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>2001</v>
-      </c>
-      <c r="E36" s="24" t="s">
-        <v>2002</v>
-      </c>
-      <c r="F36" s="14" t="s">
-        <v>1882</v>
-      </c>
-      <c r="G36" s="16" t="s">
-        <v>1895</v>
-      </c>
-      <c r="H36" s="17" t="s">
-        <v>1954</v>
-      </c>
-      <c r="J36" s="16"/>
-      <c r="K36" s="14" t="s">
-        <v>1955</v>
-      </c>
-      <c r="M36" s="21" t="s">
-        <v>2003</v>
-      </c>
-      <c r="N36" s="11"/>
+        <v>1869</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>1939</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>2031</v>
+      </c>
+      <c r="F36" s="24" t="s">
+        <v>2032</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>1886</v>
+      </c>
+      <c r="H36" s="16" t="s">
+        <v>1902</v>
+      </c>
+      <c r="I36" s="17" t="s">
+        <v>1971</v>
+      </c>
+      <c r="K36" s="16"/>
+      <c r="L36" s="14" t="s">
+        <v>1972</v>
+      </c>
+      <c r="N36" s="21" t="s">
+        <v>2033</v>
+      </c>
       <c r="O36" s="11"/>
       <c r="P36" s="11"/>
       <c r="Q36" s="11"/>
@@ -36205,37 +36397,40 @@
       <c r="S36" s="11"/>
       <c r="T36" s="11"/>
       <c r="U36" s="11"/>
+      <c r="V36" s="11"/>
     </row>
     <row r="37" ht="15" customHeight="1">
-      <c r="B37" s="14" t="s">
-        <v>1867</v>
+      <c r="A37" t="s">
+        <v>2034</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>2004</v>
-      </c>
-      <c r="D37" s="23" t="s">
-        <v>2005</v>
-      </c>
-      <c r="E37" s="24" t="s">
-        <v>2006</v>
-      </c>
-      <c r="F37" s="14" t="s">
-        <v>1882</v>
-      </c>
-      <c r="G37" s="16" t="s">
-        <v>1895</v>
-      </c>
-      <c r="H37" s="17" t="s">
-        <v>1954</v>
-      </c>
-      <c r="J37" s="16"/>
-      <c r="K37" s="14" t="s">
-        <v>1955</v>
-      </c>
-      <c r="M37" s="19" t="s">
-        <v>2007</v>
-      </c>
-      <c r="N37" s="11"/>
+        <v>1869</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>2035</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>2036</v>
+      </c>
+      <c r="F37" s="24" t="s">
+        <v>2037</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>1886</v>
+      </c>
+      <c r="H37" s="16" t="s">
+        <v>1902</v>
+      </c>
+      <c r="I37" s="17" t="s">
+        <v>1971</v>
+      </c>
+      <c r="K37" s="16"/>
+      <c r="L37" s="14" t="s">
+        <v>1972</v>
+      </c>
+      <c r="N37" s="19" t="s">
+        <v>2038</v>
+      </c>
       <c r="O37" s="11"/>
       <c r="P37" s="11"/>
       <c r="Q37" s="11"/>
@@ -36243,35 +36438,38 @@
       <c r="S37" s="11"/>
       <c r="T37" s="11"/>
       <c r="U37" s="11"/>
+      <c r="V37" s="11"/>
     </row>
     <row r="38" ht="15" customHeight="1">
-      <c r="B38" s="14" t="s">
-        <v>1867</v>
+      <c r="A38" t="s">
+        <v>2039</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>2008</v>
+        <v>1869</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>2009</v>
-      </c>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14" t="s">
-        <v>1882</v>
-      </c>
-      <c r="G38" s="16" t="s">
-        <v>1895</v>
-      </c>
-      <c r="H38" s="17" t="s">
-        <v>1877</v>
-      </c>
-      <c r="J38" s="16"/>
-      <c r="K38" s="14" t="s">
-        <v>2010</v>
-      </c>
-      <c r="M38" s="21" t="s">
-        <v>2011</v>
-      </c>
-      <c r="N38" s="11"/>
+        <v>2040</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>2041</v>
+      </c>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14" t="s">
+        <v>1886</v>
+      </c>
+      <c r="H38" s="16" t="s">
+        <v>1902</v>
+      </c>
+      <c r="I38" s="17" t="s">
+        <v>1880</v>
+      </c>
+      <c r="K38" s="16"/>
+      <c r="L38" s="14" t="s">
+        <v>2042</v>
+      </c>
+      <c r="N38" s="21" t="s">
+        <v>2043</v>
+      </c>
       <c r="O38" s="11"/>
       <c r="P38" s="11"/>
       <c r="Q38" s="11"/>
@@ -36279,35 +36477,38 @@
       <c r="S38" s="11"/>
       <c r="T38" s="11"/>
       <c r="U38" s="11"/>
+      <c r="V38" s="11"/>
     </row>
     <row r="39" ht="15" customHeight="1">
-      <c r="B39" s="14" t="s">
-        <v>1867</v>
+      <c r="A39" t="s">
+        <v>2044</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>2012</v>
+        <v>1869</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>2013</v>
-      </c>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14" t="s">
-        <v>1882</v>
-      </c>
-      <c r="G39" s="16" t="s">
-        <v>1895</v>
-      </c>
-      <c r="H39" s="17" t="s">
-        <v>1877</v>
-      </c>
-      <c r="J39" s="16"/>
-      <c r="K39" s="14" t="s">
-        <v>2010</v>
-      </c>
-      <c r="M39" s="21" t="s">
-        <v>2014</v>
-      </c>
-      <c r="N39" s="11"/>
+        <v>2045</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>2046</v>
+      </c>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14" t="s">
+        <v>1886</v>
+      </c>
+      <c r="H39" s="16" t="s">
+        <v>1902</v>
+      </c>
+      <c r="I39" s="17" t="s">
+        <v>1880</v>
+      </c>
+      <c r="K39" s="16"/>
+      <c r="L39" s="14" t="s">
+        <v>2042</v>
+      </c>
+      <c r="N39" s="21" t="s">
+        <v>2047</v>
+      </c>
       <c r="O39" s="11"/>
       <c r="P39" s="11"/>
       <c r="Q39" s="11"/>
@@ -36315,35 +36516,35 @@
       <c r="S39" s="11"/>
       <c r="T39" s="11"/>
       <c r="U39" s="11"/>
+      <c r="V39" s="11"/>
     </row>
     <row r="40" ht="15" customHeight="1">
-      <c r="B40" s="14" t="s">
-        <v>1867</v>
-      </c>
       <c r="C40" s="14" t="s">
-        <v>2015</v>
+        <v>1869</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>2016</v>
-      </c>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14" t="s">
-        <v>1882</v>
-      </c>
-      <c r="G40" s="16" t="s">
-        <v>1895</v>
-      </c>
-      <c r="H40" s="17" t="s">
-        <v>1877</v>
-      </c>
-      <c r="J40" s="16"/>
-      <c r="K40" s="14" t="s">
-        <v>2010</v>
-      </c>
-      <c r="M40" s="21" t="s">
-        <v>2017</v>
-      </c>
-      <c r="N40" s="11"/>
+        <v>2048</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>2049</v>
+      </c>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14" t="s">
+        <v>1886</v>
+      </c>
+      <c r="H40" s="16" t="s">
+        <v>1902</v>
+      </c>
+      <c r="I40" s="17" t="s">
+        <v>1880</v>
+      </c>
+      <c r="K40" s="16"/>
+      <c r="L40" s="14" t="s">
+        <v>2042</v>
+      </c>
+      <c r="N40" s="21" t="s">
+        <v>2050</v>
+      </c>
       <c r="O40" s="11"/>
       <c r="P40" s="11"/>
       <c r="Q40" s="11"/>
@@ -36351,37 +36552,37 @@
       <c r="S40" s="11"/>
       <c r="T40" s="11"/>
       <c r="U40" s="11"/>
+      <c r="V40" s="11"/>
     </row>
     <row r="41" ht="15" customHeight="1">
-      <c r="B41" s="14" t="s">
-        <v>1867</v>
-      </c>
       <c r="C41" s="14" t="s">
-        <v>2010</v>
-      </c>
-      <c r="D41" s="23" t="s">
-        <v>2018</v>
-      </c>
-      <c r="E41" s="24" t="s">
-        <v>2019</v>
-      </c>
-      <c r="F41" s="14" t="s">
-        <v>1882</v>
-      </c>
-      <c r="G41" s="16" t="s">
-        <v>1895</v>
-      </c>
-      <c r="H41" s="17" t="s">
-        <v>1954</v>
-      </c>
-      <c r="J41" s="16"/>
-      <c r="K41" s="14" t="s">
-        <v>1955</v>
-      </c>
-      <c r="M41" s="20" t="s">
-        <v>2020</v>
-      </c>
-      <c r="N41" s="11"/>
+        <v>1869</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>2042</v>
+      </c>
+      <c r="E41" s="23" t="s">
+        <v>2051</v>
+      </c>
+      <c r="F41" s="24" t="s">
+        <v>2052</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>1886</v>
+      </c>
+      <c r="H41" s="16" t="s">
+        <v>1902</v>
+      </c>
+      <c r="I41" s="17" t="s">
+        <v>1971</v>
+      </c>
+      <c r="K41" s="16"/>
+      <c r="L41" s="14" t="s">
+        <v>1972</v>
+      </c>
+      <c r="N41" s="20" t="s">
+        <v>2053</v>
+      </c>
       <c r="O41" s="11"/>
       <c r="P41" s="11"/>
       <c r="Q41" s="11"/>
@@ -36389,37 +36590,37 @@
       <c r="S41" s="11"/>
       <c r="T41" s="11"/>
       <c r="U41" s="11"/>
+      <c r="V41" s="11"/>
     </row>
     <row r="42" ht="15" customHeight="1">
-      <c r="B42" s="14" t="s">
-        <v>1867</v>
-      </c>
       <c r="C42" s="14" t="s">
-        <v>2021</v>
-      </c>
-      <c r="D42" s="26" t="s">
-        <v>2022</v>
-      </c>
-      <c r="E42" s="27" t="s">
-        <v>2023</v>
-      </c>
-      <c r="F42" s="14" t="s">
-        <v>1882</v>
-      </c>
-      <c r="G42" s="16" t="s">
-        <v>1895</v>
-      </c>
-      <c r="H42" s="17" t="s">
-        <v>1954</v>
-      </c>
-      <c r="J42" s="16"/>
-      <c r="K42" s="14" t="s">
-        <v>1955</v>
-      </c>
-      <c r="M42" s="21" t="s">
-        <v>2024</v>
-      </c>
-      <c r="N42" s="11"/>
+        <v>1869</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>2054</v>
+      </c>
+      <c r="E42" s="26" t="s">
+        <v>2055</v>
+      </c>
+      <c r="F42" s="27" t="s">
+        <v>2056</v>
+      </c>
+      <c r="G42" s="14" t="s">
+        <v>1886</v>
+      </c>
+      <c r="H42" s="16" t="s">
+        <v>1902</v>
+      </c>
+      <c r="I42" s="17" t="s">
+        <v>1971</v>
+      </c>
+      <c r="K42" s="16"/>
+      <c r="L42" s="14" t="s">
+        <v>1972</v>
+      </c>
+      <c r="N42" s="21" t="s">
+        <v>2057</v>
+      </c>
       <c r="O42" s="11"/>
       <c r="P42" s="11"/>
       <c r="Q42" s="11"/>
@@ -36427,35 +36628,35 @@
       <c r="S42" s="11"/>
       <c r="T42" s="11"/>
       <c r="U42" s="11"/>
+      <c r="V42" s="11"/>
     </row>
     <row r="43" ht="15" customHeight="1">
-      <c r="B43" s="14" t="s">
-        <v>1867</v>
-      </c>
       <c r="C43" s="14" t="s">
-        <v>2025</v>
+        <v>1869</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>2026</v>
-      </c>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14" t="s">
-        <v>1882</v>
-      </c>
-      <c r="G43" s="16" t="s">
-        <v>1895</v>
-      </c>
-      <c r="H43" s="17" t="s">
-        <v>1877</v>
-      </c>
-      <c r="J43" s="16"/>
-      <c r="K43" s="14" t="s">
-        <v>2027</v>
-      </c>
-      <c r="M43" s="21" t="s">
-        <v>2028</v>
-      </c>
-      <c r="N43" s="11"/>
+        <v>2058</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>2059</v>
+      </c>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14" t="s">
+        <v>1886</v>
+      </c>
+      <c r="H43" s="16" t="s">
+        <v>1902</v>
+      </c>
+      <c r="I43" s="17" t="s">
+        <v>1880</v>
+      </c>
+      <c r="K43" s="16"/>
+      <c r="L43" s="14" t="s">
+        <v>2060</v>
+      </c>
+      <c r="N43" s="21" t="s">
+        <v>2061</v>
+      </c>
       <c r="O43" s="11"/>
       <c r="P43" s="11"/>
       <c r="Q43" s="11"/>
@@ -36463,37 +36664,37 @@
       <c r="S43" s="11"/>
       <c r="T43" s="11"/>
       <c r="U43" s="11"/>
+      <c r="V43" s="11"/>
     </row>
     <row r="44" ht="15" customHeight="1">
-      <c r="B44" s="14" t="s">
-        <v>1867</v>
-      </c>
       <c r="C44" s="14" t="s">
-        <v>2027</v>
-      </c>
-      <c r="D44" s="28" t="s">
-        <v>2029</v>
-      </c>
-      <c r="E44" s="24" t="s">
-        <v>2030</v>
-      </c>
-      <c r="F44" s="14" t="s">
-        <v>1882</v>
-      </c>
-      <c r="G44" s="16" t="s">
-        <v>1895</v>
-      </c>
-      <c r="H44" s="17" t="s">
-        <v>1954</v>
-      </c>
-      <c r="J44" s="16"/>
-      <c r="K44" s="14" t="s">
-        <v>1955</v>
-      </c>
-      <c r="M44" s="21" t="s">
-        <v>2031</v>
-      </c>
-      <c r="N44" s="11"/>
+        <v>1869</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>2060</v>
+      </c>
+      <c r="E44" s="28" t="s">
+        <v>2062</v>
+      </c>
+      <c r="F44" s="24" t="s">
+        <v>2063</v>
+      </c>
+      <c r="G44" s="14" t="s">
+        <v>1886</v>
+      </c>
+      <c r="H44" s="16" t="s">
+        <v>1902</v>
+      </c>
+      <c r="I44" s="17" t="s">
+        <v>1971</v>
+      </c>
+      <c r="K44" s="16"/>
+      <c r="L44" s="14" t="s">
+        <v>1972</v>
+      </c>
+      <c r="N44" s="21" t="s">
+        <v>2064</v>
+      </c>
       <c r="O44" s="11"/>
       <c r="P44" s="11"/>
       <c r="Q44" s="11"/>
@@ -36501,35 +36702,35 @@
       <c r="S44" s="11"/>
       <c r="T44" s="11"/>
       <c r="U44" s="11"/>
+      <c r="V44" s="11"/>
     </row>
     <row r="45" ht="15" customHeight="1">
-      <c r="B45" s="14" t="s">
-        <v>1867</v>
-      </c>
       <c r="C45" s="14" t="s">
-        <v>2032</v>
+        <v>1869</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>2033</v>
-      </c>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14" t="s">
-        <v>1882</v>
-      </c>
-      <c r="G45" s="16" t="s">
-        <v>1895</v>
-      </c>
-      <c r="H45" s="17" t="s">
-        <v>1877</v>
-      </c>
-      <c r="J45" s="16"/>
-      <c r="K45" s="14" t="s">
-        <v>2034</v>
-      </c>
-      <c r="M45" s="21" t="s">
-        <v>2035</v>
-      </c>
-      <c r="N45" s="11"/>
+        <v>2065</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>2066</v>
+      </c>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14" t="s">
+        <v>1886</v>
+      </c>
+      <c r="H45" s="16" t="s">
+        <v>1902</v>
+      </c>
+      <c r="I45" s="17" t="s">
+        <v>1880</v>
+      </c>
+      <c r="K45" s="16"/>
+      <c r="L45" s="14" t="s">
+        <v>2067</v>
+      </c>
+      <c r="N45" s="21" t="s">
+        <v>2068</v>
+      </c>
       <c r="O45" s="11"/>
       <c r="P45" s="11"/>
       <c r="Q45" s="11"/>
@@ -36537,35 +36738,35 @@
       <c r="S45" s="11"/>
       <c r="T45" s="11"/>
       <c r="U45" s="11"/>
+      <c r="V45" s="11"/>
     </row>
     <row r="46" ht="15" customHeight="1">
-      <c r="B46" s="14" t="s">
-        <v>1867</v>
-      </c>
       <c r="C46" s="14" t="s">
-        <v>2036</v>
+        <v>1869</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>2037</v>
-      </c>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14" t="s">
-        <v>1882</v>
-      </c>
-      <c r="G46" s="16" t="s">
-        <v>1895</v>
-      </c>
-      <c r="H46" s="17" t="s">
-        <v>1877</v>
-      </c>
-      <c r="J46" s="16"/>
-      <c r="K46" s="14" t="s">
-        <v>2034</v>
-      </c>
-      <c r="M46" s="21" t="s">
-        <v>2038</v>
-      </c>
-      <c r="N46" s="11"/>
+        <v>2069</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>2070</v>
+      </c>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14" t="s">
+        <v>1886</v>
+      </c>
+      <c r="H46" s="16" t="s">
+        <v>1902</v>
+      </c>
+      <c r="I46" s="17" t="s">
+        <v>1880</v>
+      </c>
+      <c r="K46" s="16"/>
+      <c r="L46" s="14" t="s">
+        <v>2067</v>
+      </c>
+      <c r="N46" s="21" t="s">
+        <v>2071</v>
+      </c>
       <c r="O46" s="11"/>
       <c r="P46" s="11"/>
       <c r="Q46" s="11"/>
@@ -36573,35 +36774,35 @@
       <c r="S46" s="11"/>
       <c r="T46" s="11"/>
       <c r="U46" s="11"/>
+      <c r="V46" s="11"/>
     </row>
     <row r="47" ht="15" customHeight="1">
-      <c r="B47" s="14" t="s">
-        <v>1867</v>
-      </c>
       <c r="C47" s="14" t="s">
-        <v>2039</v>
+        <v>1869</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>2040</v>
-      </c>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14" t="s">
-        <v>1882</v>
-      </c>
-      <c r="G47" s="16" t="s">
-        <v>1895</v>
-      </c>
-      <c r="H47" s="17" t="s">
-        <v>1877</v>
-      </c>
-      <c r="J47" s="16"/>
-      <c r="K47" s="14" t="s">
-        <v>2034</v>
-      </c>
-      <c r="M47" s="21" t="s">
-        <v>2041</v>
-      </c>
-      <c r="N47" s="11"/>
+        <v>2072</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>2073</v>
+      </c>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14" t="s">
+        <v>1886</v>
+      </c>
+      <c r="H47" s="16" t="s">
+        <v>1902</v>
+      </c>
+      <c r="I47" s="17" t="s">
+        <v>1880</v>
+      </c>
+      <c r="K47" s="16"/>
+      <c r="L47" s="14" t="s">
+        <v>2067</v>
+      </c>
+      <c r="N47" s="21" t="s">
+        <v>2074</v>
+      </c>
       <c r="O47" s="11"/>
       <c r="P47" s="11"/>
       <c r="Q47" s="11"/>
@@ -36609,37 +36810,37 @@
       <c r="S47" s="11"/>
       <c r="T47" s="11"/>
       <c r="U47" s="11"/>
+      <c r="V47" s="11"/>
     </row>
     <row r="48" ht="15" customHeight="1">
-      <c r="B48" s="14" t="s">
-        <v>1867</v>
-      </c>
       <c r="C48" s="14" t="s">
-        <v>2034</v>
-      </c>
-      <c r="D48" s="23" t="s">
-        <v>2042</v>
-      </c>
-      <c r="E48" s="29" t="s">
-        <v>2043</v>
-      </c>
-      <c r="F48" s="14" t="s">
-        <v>1882</v>
-      </c>
-      <c r="G48" s="16" t="s">
-        <v>1895</v>
-      </c>
-      <c r="H48" s="17" t="s">
-        <v>1954</v>
-      </c>
-      <c r="J48" s="16"/>
-      <c r="K48" s="14" t="s">
-        <v>1955</v>
-      </c>
-      <c r="M48" s="20" t="s">
-        <v>2044</v>
-      </c>
-      <c r="N48" s="11"/>
+        <v>1869</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>2067</v>
+      </c>
+      <c r="E48" s="23" t="s">
+        <v>2075</v>
+      </c>
+      <c r="F48" s="29" t="s">
+        <v>2076</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>1886</v>
+      </c>
+      <c r="H48" s="16" t="s">
+        <v>1902</v>
+      </c>
+      <c r="I48" s="17" t="s">
+        <v>1971</v>
+      </c>
+      <c r="K48" s="16"/>
+      <c r="L48" s="14" t="s">
+        <v>1972</v>
+      </c>
+      <c r="N48" s="20" t="s">
+        <v>2077</v>
+      </c>
       <c r="O48" s="11"/>
       <c r="P48" s="11"/>
       <c r="Q48" s="11"/>
@@ -36647,37 +36848,37 @@
       <c r="S48" s="11"/>
       <c r="T48" s="11"/>
       <c r="U48" s="11"/>
+      <c r="V48" s="11"/>
     </row>
     <row r="49" ht="15" customHeight="1">
-      <c r="B49" s="14" t="s">
-        <v>1867</v>
-      </c>
       <c r="C49" s="14" t="s">
-        <v>2045</v>
-      </c>
-      <c r="D49" s="23" t="s">
-        <v>2046</v>
-      </c>
-      <c r="E49" s="29" t="s">
-        <v>2047</v>
-      </c>
-      <c r="F49" s="14" t="s">
-        <v>1882</v>
-      </c>
-      <c r="G49" s="16" t="s">
-        <v>1895</v>
-      </c>
-      <c r="H49" s="17" t="s">
-        <v>1954</v>
-      </c>
-      <c r="J49" s="16"/>
-      <c r="K49" s="14" t="s">
-        <v>1955</v>
-      </c>
-      <c r="M49" s="21" t="s">
-        <v>2048</v>
-      </c>
-      <c r="N49" s="11"/>
+        <v>1869</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>2078</v>
+      </c>
+      <c r="E49" s="23" t="s">
+        <v>2079</v>
+      </c>
+      <c r="F49" s="29" t="s">
+        <v>2080</v>
+      </c>
+      <c r="G49" s="14" t="s">
+        <v>1886</v>
+      </c>
+      <c r="H49" s="16" t="s">
+        <v>1902</v>
+      </c>
+      <c r="I49" s="17" t="s">
+        <v>1971</v>
+      </c>
+      <c r="K49" s="16"/>
+      <c r="L49" s="14" t="s">
+        <v>1972</v>
+      </c>
+      <c r="N49" s="21" t="s">
+        <v>2081</v>
+      </c>
       <c r="O49" s="11"/>
       <c r="P49" s="11"/>
       <c r="Q49" s="11"/>
@@ -36685,12 +36886,13 @@
       <c r="S49" s="11"/>
       <c r="T49" s="11"/>
       <c r="U49" s="11"/>
+      <c r="V49" s="11"/>
     </row>
     <row r="50" ht="15" customHeight="1"/>
     <row r="51" ht="15" customHeight="1"/>
     <row r="52" ht="15" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="D1:U50"/>
+  <autoFilter ref="E1:V50"/>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
@@ -36719,7 +36921,7 @@
         <v>16</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>2049</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="2">
@@ -36727,7 +36929,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>1904</v>
+        <v>1913</v>
       </c>
       <c r="C2" s="31" t="s">
         <v>781</v>
@@ -36738,7 +36940,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>1904</v>
+        <v>1913</v>
       </c>
       <c r="C3" s="31" t="s">
         <v>786</v>
@@ -36749,7 +36951,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>1904</v>
+        <v>1913</v>
       </c>
       <c r="C4" s="31" t="s">
         <v>791</v>
@@ -36760,7 +36962,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>1904</v>
+        <v>1913</v>
       </c>
       <c r="C5" s="31" t="s">
         <v>687</v>
@@ -36771,7 +36973,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>1904</v>
+        <v>1913</v>
       </c>
       <c r="C6" s="31" t="s">
         <v>690</v>
@@ -36782,7 +36984,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>1904</v>
+        <v>1913</v>
       </c>
       <c r="C7" s="31" t="s">
         <v>696</v>
@@ -36793,7 +36995,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>1904</v>
+        <v>1913</v>
       </c>
       <c r="C8" s="31" t="s">
         <v>701</v>
@@ -36804,7 +37006,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>1904</v>
+        <v>1913</v>
       </c>
       <c r="C9" s="31" t="s">
         <v>711</v>
@@ -36815,7 +37017,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>1904</v>
+        <v>1913</v>
       </c>
       <c r="C10" s="31" t="s">
         <v>719</v>
@@ -36826,7 +37028,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>1904</v>
+        <v>1913</v>
       </c>
       <c r="C11" s="31" t="s">
         <v>729</v>
@@ -36837,7 +37039,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>1904</v>
+        <v>1913</v>
       </c>
       <c r="C12" s="31" t="s">
         <v>617</v>
@@ -36848,7 +37050,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>1904</v>
+        <v>1913</v>
       </c>
       <c r="C13" s="31" t="s">
         <v>623</v>
@@ -36859,7 +37061,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>1904</v>
+        <v>1913</v>
       </c>
       <c r="C14" s="31" t="s">
         <v>629</v>
@@ -36870,7 +37072,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>1904</v>
+        <v>1913</v>
       </c>
       <c r="C15" s="31" t="s">
         <v>634</v>
@@ -36881,7 +37083,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>1904</v>
+        <v>1913</v>
       </c>
       <c r="C16" s="31" t="s">
         <v>634</v>
@@ -36892,7 +37094,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>1904</v>
+        <v>1913</v>
       </c>
       <c r="C17" s="31" t="s">
         <v>638</v>
@@ -36903,7 +37105,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>1904</v>
+        <v>1913</v>
       </c>
       <c r="C18" s="31" t="s">
         <v>656</v>
@@ -36914,7 +37116,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>1904</v>
+        <v>1913</v>
       </c>
       <c r="C19" s="31" t="s">
         <v>659</v>
@@ -36925,7 +37127,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>1960</v>
+        <v>1979</v>
       </c>
       <c r="C20" s="31" t="s">
         <v>586</v>
@@ -36936,7 +37138,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>1960</v>
+        <v>1979</v>
       </c>
       <c r="C21" s="31" t="s">
         <v>589</v>
@@ -36947,7 +37149,7 @@
         <v>3</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>1960</v>
+        <v>1979</v>
       </c>
       <c r="C22" s="31" t="s">
         <v>598</v>
@@ -36958,7 +37160,7 @@
         <v>3</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>1960</v>
+        <v>1979</v>
       </c>
       <c r="C23" s="31" t="s">
         <v>601</v>
@@ -36969,7 +37171,7 @@
         <v>3</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>2050</v>
+        <v>2083</v>
       </c>
       <c r="C24" s="31" t="s">
         <v>826</v>
@@ -36980,7 +37182,7 @@
         <v>3</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>2050</v>
+        <v>2083</v>
       </c>
       <c r="C25" s="31" t="s">
         <v>828</v>
@@ -36991,7 +37193,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>2050</v>
+        <v>2083</v>
       </c>
       <c r="C26" s="31" t="s">
         <v>832</v>
@@ -37002,7 +37204,7 @@
         <v>3</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>2050</v>
+        <v>2083</v>
       </c>
       <c r="C27" s="31" t="s">
         <v>836</v>
@@ -37013,7 +37215,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>2051</v>
+        <v>2084</v>
       </c>
       <c r="C28" s="31" t="s">
         <v>826</v>
@@ -37024,7 +37226,7 @@
         <v>3</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>2051</v>
+        <v>2084</v>
       </c>
       <c r="C29" s="31" t="s">
         <v>828</v>
@@ -37035,7 +37237,7 @@
         <v>3</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>2051</v>
+        <v>2084</v>
       </c>
       <c r="C30" s="31" t="s">
         <v>832</v>
@@ -37046,7 +37248,7 @@
         <v>3</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>2051</v>
+        <v>2084</v>
       </c>
       <c r="C31" s="31" t="s">
         <v>836</v>
@@ -37057,7 +37259,7 @@
         <v>3</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>1964</v>
+        <v>1984</v>
       </c>
       <c r="C32" s="31" t="s">
         <v>926</v>
@@ -37068,7 +37270,7 @@
         <v>3</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>1971</v>
+        <v>1992</v>
       </c>
       <c r="C33" s="31" t="s">
         <v>522</v>
@@ -37079,7 +37281,7 @@
         <v>3</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>1971</v>
+        <v>1992</v>
       </c>
       <c r="C34" s="31" t="s">
         <v>525</v>
@@ -37090,7 +37292,7 @@
         <v>3</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>1971</v>
+        <v>1992</v>
       </c>
       <c r="C35" s="31" t="s">
         <v>529</v>
@@ -37101,7 +37303,7 @@
         <v>3</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>1971</v>
+        <v>1992</v>
       </c>
       <c r="C36" s="31" t="s">
         <v>538</v>
@@ -37112,7 +37314,7 @@
         <v>3</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>1981</v>
+        <v>2005</v>
       </c>
       <c r="C37" s="31" t="s">
         <v>502</v>
@@ -37123,7 +37325,7 @@
         <v>3</v>
       </c>
       <c r="B38" s="31" t="s">
-        <v>1981</v>
+        <v>2005</v>
       </c>
       <c r="C38" s="31" t="s">
         <v>520</v>
@@ -37134,7 +37336,7 @@
         <v>3</v>
       </c>
       <c r="B39" s="31" t="s">
-        <v>1989</v>
+        <v>2016</v>
       </c>
       <c r="C39" s="31" t="s">
         <v>934</v>
@@ -37145,7 +37347,7 @@
         <v>3</v>
       </c>
       <c r="B40" s="31" t="s">
-        <v>1989</v>
+        <v>2016</v>
       </c>
       <c r="C40" s="31" t="s">
         <v>936</v>
@@ -37156,7 +37358,7 @@
         <v>3</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>1989</v>
+        <v>2016</v>
       </c>
       <c r="C41" s="31" t="s">
         <v>938</v>
@@ -37167,7 +37369,7 @@
         <v>3</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>1989</v>
+        <v>2016</v>
       </c>
       <c r="C42" s="31" t="s">
         <v>940</v>
@@ -37178,7 +37380,7 @@
         <v>3</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>1993</v>
+        <v>2021</v>
       </c>
       <c r="C43" s="31" t="s">
         <v>948</v>
@@ -37189,7 +37391,7 @@
         <v>3</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>1993</v>
+        <v>2021</v>
       </c>
       <c r="C44" s="31" t="s">
         <v>844</v>
@@ -37200,7 +37402,7 @@
         <v>3</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>1993</v>
+        <v>2021</v>
       </c>
       <c r="C45" s="31" t="s">
         <v>846</v>
@@ -37211,7 +37413,7 @@
         <v>3</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>1993</v>
+        <v>2021</v>
       </c>
       <c r="C46" s="31" t="s">
         <v>852</v>
@@ -37222,7 +37424,7 @@
         <v>3</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>1993</v>
+        <v>2021</v>
       </c>
       <c r="C47" s="31" t="s">
         <v>854</v>
@@ -37233,7 +37435,7 @@
         <v>3</v>
       </c>
       <c r="B48" s="31" t="s">
-        <v>1926</v>
+        <v>1939</v>
       </c>
       <c r="C48" s="31" t="s">
         <v>617</v>
@@ -37244,7 +37446,7 @@
         <v>3</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>1926</v>
+        <v>1939</v>
       </c>
       <c r="C49" s="31" t="s">
         <v>623</v>
@@ -37255,7 +37457,7 @@
         <v>3</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>1926</v>
+        <v>1939</v>
       </c>
       <c r="C50" s="31" t="s">
         <v>629</v>
@@ -37266,7 +37468,7 @@
         <v>3</v>
       </c>
       <c r="B51" s="31" t="s">
-        <v>1926</v>
+        <v>1939</v>
       </c>
       <c r="C51" s="31" t="s">
         <v>634</v>
@@ -37277,7 +37479,7 @@
         <v>3</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>1926</v>
+        <v>1939</v>
       </c>
       <c r="C52" s="31" t="s">
         <v>638</v>
@@ -37288,7 +37490,7 @@
         <v>3</v>
       </c>
       <c r="B53" s="31" t="s">
-        <v>1926</v>
+        <v>1939</v>
       </c>
       <c r="C53" s="31" t="s">
         <v>656</v>
@@ -37299,7 +37501,7 @@
         <v>3</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>1926</v>
+        <v>1939</v>
       </c>
       <c r="C54" s="31" t="s">
         <v>659</v>
@@ -37310,7 +37512,7 @@
         <v>3</v>
       </c>
       <c r="B55" s="31" t="s">
-        <v>2004</v>
+        <v>2035</v>
       </c>
       <c r="C55" s="31" t="s">
         <v>687</v>
@@ -37321,7 +37523,7 @@
         <v>3</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>2004</v>
+        <v>2035</v>
       </c>
       <c r="C56" s="31" t="s">
         <v>690</v>
@@ -37332,7 +37534,7 @@
         <v>3</v>
       </c>
       <c r="B57" s="31" t="s">
-        <v>2004</v>
+        <v>2035</v>
       </c>
       <c r="C57" s="31" t="s">
         <v>696</v>
@@ -37343,7 +37545,7 @@
         <v>3</v>
       </c>
       <c r="B58" s="31" t="s">
-        <v>2052</v>
+        <v>2085</v>
       </c>
       <c r="C58" s="31" t="s">
         <v>551</v>
@@ -37354,7 +37556,7 @@
         <v>3</v>
       </c>
       <c r="B59" s="31" t="s">
-        <v>2052</v>
+        <v>2085</v>
       </c>
       <c r="C59" s="31" t="s">
         <v>553</v>
@@ -37365,7 +37567,7 @@
         <v>3</v>
       </c>
       <c r="B60" s="31" t="s">
-        <v>2052</v>
+        <v>2085</v>
       </c>
       <c r="C60" s="31" t="s">
         <v>556</v>
@@ -37376,7 +37578,7 @@
         <v>3</v>
       </c>
       <c r="B61" s="31" t="s">
-        <v>2052</v>
+        <v>2085</v>
       </c>
       <c r="C61" s="31" t="s">
         <v>559</v>
@@ -37387,7 +37589,7 @@
         <v>3</v>
       </c>
       <c r="B62" s="31" t="s">
-        <v>2053</v>
+        <v>2086</v>
       </c>
       <c r="C62" s="31" t="s">
         <v>759</v>
@@ -37398,7 +37600,7 @@
         <v>3</v>
       </c>
       <c r="B63" s="31" t="s">
-        <v>2053</v>
+        <v>2086</v>
       </c>
       <c r="C63" s="31" t="s">
         <v>763</v>
@@ -37409,7 +37611,7 @@
         <v>3</v>
       </c>
       <c r="B64" s="31" t="s">
-        <v>2053</v>
+        <v>2086</v>
       </c>
       <c r="C64" s="31" t="s">
         <v>767</v>
@@ -37420,7 +37622,7 @@
         <v>3</v>
       </c>
       <c r="B65" s="31" t="s">
-        <v>2053</v>
+        <v>2086</v>
       </c>
       <c r="C65" s="31" t="s">
         <v>775</v>
@@ -37431,7 +37633,7 @@
         <v>3</v>
       </c>
       <c r="B66" s="31" t="s">
-        <v>1916</v>
+        <v>1928</v>
       </c>
       <c r="C66" s="31" t="s">
         <v>701</v>
@@ -37442,7 +37644,7 @@
         <v>3</v>
       </c>
       <c r="B67" s="31" t="s">
-        <v>1916</v>
+        <v>1928</v>
       </c>
       <c r="C67" s="31" t="s">
         <v>711</v>
@@ -37453,7 +37655,7 @@
         <v>3</v>
       </c>
       <c r="B68" s="31" t="s">
-        <v>1916</v>
+        <v>1928</v>
       </c>
       <c r="C68" s="31" t="s">
         <v>719</v>
@@ -37464,7 +37666,7 @@
         <v>3</v>
       </c>
       <c r="B69" s="31" t="s">
-        <v>1916</v>
+        <v>1928</v>
       </c>
       <c r="C69" s="31" t="s">
         <v>729</v>
@@ -37475,7 +37677,7 @@
         <v>3</v>
       </c>
       <c r="B70" s="31" t="s">
-        <v>2010</v>
+        <v>2042</v>
       </c>
       <c r="C70" s="31" t="s">
         <v>732</v>
@@ -37486,7 +37688,7 @@
         <v>3</v>
       </c>
       <c r="B71" s="31" t="s">
-        <v>2010</v>
+        <v>2042</v>
       </c>
       <c r="C71" s="31" t="s">
         <v>738</v>
@@ -37497,7 +37699,7 @@
         <v>3</v>
       </c>
       <c r="B72" s="31" t="s">
-        <v>2010</v>
+        <v>2042</v>
       </c>
       <c r="C72" s="31" t="s">
         <v>743</v>
@@ -37508,7 +37710,7 @@
         <v>3</v>
       </c>
       <c r="B73" s="31" t="s">
-        <v>2010</v>
+        <v>2042</v>
       </c>
       <c r="C73" s="31" t="s">
         <v>748</v>
@@ -37519,7 +37721,7 @@
         <v>3</v>
       </c>
       <c r="B74" s="31" t="s">
-        <v>2010</v>
+        <v>2042</v>
       </c>
       <c r="C74" s="31" t="s">
         <v>753</v>
@@ -37530,7 +37732,7 @@
         <v>3</v>
       </c>
       <c r="B75" s="31" t="s">
-        <v>1997</v>
+        <v>2026</v>
       </c>
       <c r="C75" s="31" t="s">
         <v>673</v>
@@ -37541,7 +37743,7 @@
         <v>3</v>
       </c>
       <c r="B76" s="31" t="s">
-        <v>1997</v>
+        <v>2026</v>
       </c>
       <c r="C76" s="31" t="s">
         <v>676</v>
@@ -37552,7 +37754,7 @@
         <v>3</v>
       </c>
       <c r="B77" s="31" t="s">
-        <v>1997</v>
+        <v>2026</v>
       </c>
       <c r="C77" s="31" t="s">
         <v>683</v>
@@ -37563,7 +37765,7 @@
         <v>3</v>
       </c>
       <c r="B78" s="31" t="s">
-        <v>2021</v>
+        <v>2054</v>
       </c>
       <c r="C78" s="31" t="s">
         <v>909</v>
@@ -37574,7 +37776,7 @@
         <v>3</v>
       </c>
       <c r="B79" s="31" t="s">
-        <v>2021</v>
+        <v>2054</v>
       </c>
       <c r="C79" s="31" t="s">
         <v>912</v>
@@ -37585,7 +37787,7 @@
         <v>3</v>
       </c>
       <c r="B80" s="31" t="s">
-        <v>2021</v>
+        <v>2054</v>
       </c>
       <c r="C80" s="31" t="s">
         <v>915</v>
@@ -37596,7 +37798,7 @@
         <v>3</v>
       </c>
       <c r="B81" s="31" t="s">
-        <v>2021</v>
+        <v>2054</v>
       </c>
       <c r="C81" s="31" t="s">
         <v>918</v>
@@ -37607,7 +37809,7 @@
         <v>3</v>
       </c>
       <c r="B82" s="31" t="s">
-        <v>2021</v>
+        <v>2054</v>
       </c>
       <c r="C82" s="31" t="s">
         <v>920</v>
@@ -37618,7 +37820,7 @@
         <v>3</v>
       </c>
       <c r="B83" s="31" t="s">
-        <v>2054</v>
+        <v>2087</v>
       </c>
       <c r="C83" s="31" t="s">
         <v>907</v>
@@ -37629,7 +37831,7 @@
         <v>3</v>
       </c>
       <c r="B84" s="31" t="s">
-        <v>2027</v>
+        <v>2060</v>
       </c>
       <c r="C84" s="31" t="s">
         <v>875</v>
@@ -37640,7 +37842,7 @@
         <v>3</v>
       </c>
       <c r="B85" s="31" t="s">
-        <v>2027</v>
+        <v>2060</v>
       </c>
       <c r="C85" s="31" t="s">
         <v>878</v>
@@ -37651,7 +37853,7 @@
         <v>3</v>
       </c>
       <c r="B86" s="31" t="s">
-        <v>2027</v>
+        <v>2060</v>
       </c>
       <c r="C86" s="31" t="s">
         <v>881</v>
@@ -37662,7 +37864,7 @@
         <v>3</v>
       </c>
       <c r="B87" s="31" t="s">
-        <v>2027</v>
+        <v>2060</v>
       </c>
       <c r="C87" s="31" t="s">
         <v>884</v>
@@ -37673,7 +37875,7 @@
         <v>3</v>
       </c>
       <c r="B88" s="31" t="s">
-        <v>2027</v>
+        <v>2060</v>
       </c>
       <c r="C88" s="31" t="s">
         <v>887</v>
@@ -37684,7 +37886,7 @@
         <v>3</v>
       </c>
       <c r="B89" s="31" t="s">
-        <v>2027</v>
+        <v>2060</v>
       </c>
       <c r="C89" s="31" t="s">
         <v>891</v>
@@ -37695,7 +37897,7 @@
         <v>3</v>
       </c>
       <c r="B90" s="31" t="s">
-        <v>2027</v>
+        <v>2060</v>
       </c>
       <c r="C90" s="31" t="s">
         <v>894</v>
@@ -37706,7 +37908,7 @@
         <v>3</v>
       </c>
       <c r="B91" s="31" t="s">
-        <v>2027</v>
+        <v>2060</v>
       </c>
       <c r="C91" s="31" t="s">
         <v>898</v>
@@ -37717,7 +37919,7 @@
         <v>3</v>
       </c>
       <c r="B92" s="31" t="s">
-        <v>2027</v>
+        <v>2060</v>
       </c>
       <c r="C92" s="31" t="s">
         <v>901</v>
@@ -37728,7 +37930,7 @@
         <v>3</v>
       </c>
       <c r="B93" s="31" t="s">
-        <v>2027</v>
+        <v>2060</v>
       </c>
       <c r="C93" s="31" t="s">
         <v>904</v>
@@ -37739,7 +37941,7 @@
         <v>3</v>
       </c>
       <c r="B94" s="31" t="s">
-        <v>2055</v>
+        <v>2088</v>
       </c>
       <c r="C94" s="31" t="s">
         <v>502</v>
@@ -37750,7 +37952,7 @@
         <v>3</v>
       </c>
       <c r="B95" s="31" t="s">
-        <v>2055</v>
+        <v>2088</v>
       </c>
       <c r="C95" s="31" t="s">
         <v>520</v>
@@ -37761,7 +37963,7 @@
         <v>3</v>
       </c>
       <c r="B96" s="31" t="s">
-        <v>2055</v>
+        <v>2088</v>
       </c>
       <c r="C96" s="31" t="s">
         <v>522</v>
@@ -37772,7 +37974,7 @@
         <v>3</v>
       </c>
       <c r="B97" s="31" t="s">
-        <v>2055</v>
+        <v>2088</v>
       </c>
       <c r="C97" s="31" t="s">
         <v>525</v>
@@ -37783,7 +37985,7 @@
         <v>3</v>
       </c>
       <c r="B98" s="31" t="s">
-        <v>2055</v>
+        <v>2088</v>
       </c>
       <c r="C98" s="31" t="s">
         <v>529</v>
@@ -37794,7 +37996,7 @@
         <v>3</v>
       </c>
       <c r="B99" s="31" t="s">
-        <v>2055</v>
+        <v>2088</v>
       </c>
       <c r="C99" s="31" t="s">
         <v>538</v>
@@ -37805,7 +38007,7 @@
         <v>3</v>
       </c>
       <c r="B100" s="31" t="s">
-        <v>2034</v>
+        <v>2067</v>
       </c>
       <c r="C100" s="31" t="s">
         <v>647</v>
@@ -37816,7 +38018,7 @@
         <v>3</v>
       </c>
       <c r="B101" s="31" t="s">
-        <v>2034</v>
+        <v>2067</v>
       </c>
       <c r="C101" s="31" t="s">
         <v>652</v>
@@ -37827,7 +38029,7 @@
         <v>3</v>
       </c>
       <c r="B102" s="31" t="s">
-        <v>2034</v>
+        <v>2067</v>
       </c>
       <c r="C102" s="31" t="s">
         <v>663</v>
@@ -37838,7 +38040,7 @@
         <v>3</v>
       </c>
       <c r="B103" s="31" t="s">
-        <v>2034</v>
+        <v>2067</v>
       </c>
       <c r="C103" s="31" t="s">
         <v>668</v>
@@ -37849,7 +38051,7 @@
         <v>3</v>
       </c>
       <c r="B104" s="31" t="s">
-        <v>2045</v>
+        <v>2078</v>
       </c>
       <c r="C104" s="31" t="s">
         <v>797</v>
@@ -37886,7 +38088,7 @@
         <v>16</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>2056</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="2" ht="14.25">
@@ -37926,7 +38128,7 @@
         <v>16</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>2057</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="2">
@@ -37934,10 +38136,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>1904</v>
+        <v>1913</v>
       </c>
       <c r="C2" t="s">
-        <v>2058</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="3">
@@ -37945,10 +38147,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>1960</v>
+        <v>1979</v>
       </c>
       <c r="C3" t="s">
-        <v>2058</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="4">
@@ -37956,10 +38158,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>2050</v>
+        <v>2083</v>
       </c>
       <c r="C4" t="s">
-        <v>2058</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="5">
@@ -37967,10 +38169,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>2051</v>
+        <v>2084</v>
       </c>
       <c r="C5" t="s">
-        <v>2058</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="6">
@@ -37978,10 +38180,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>1964</v>
+        <v>1984</v>
       </c>
       <c r="C6" t="s">
-        <v>2058</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="7">
@@ -37989,10 +38191,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>2052</v>
+        <v>2085</v>
       </c>
       <c r="C7" t="s">
-        <v>2058</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="8">
@@ -38000,10 +38202,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>2053</v>
+        <v>2086</v>
       </c>
       <c r="C8" t="s">
-        <v>2058</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="9">
@@ -38011,10 +38213,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>1916</v>
+        <v>1928</v>
       </c>
       <c r="C9" t="s">
-        <v>2058</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="10">
@@ -38022,10 +38224,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>2010</v>
+        <v>2042</v>
       </c>
       <c r="C10" t="s">
-        <v>2058</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="11">
@@ -38033,10 +38235,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>2021</v>
+        <v>2054</v>
       </c>
       <c r="C11" t="s">
-        <v>2058</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="12">
@@ -38044,10 +38246,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>2054</v>
+        <v>2087</v>
       </c>
       <c r="C12" t="s">
-        <v>2058</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="13">
@@ -38055,10 +38257,10 @@
         <v>3</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>2027</v>
+        <v>2060</v>
       </c>
       <c r="C13" t="s">
-        <v>2058</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="14">
@@ -38066,10 +38268,10 @@
         <v>3</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>2034</v>
+        <v>2067</v>
       </c>
       <c r="C14" t="s">
-        <v>2058</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="15">
@@ -38077,10 +38279,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>2045</v>
+        <v>2078</v>
       </c>
       <c r="C15" t="s">
-        <v>2058</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="16">
@@ -38088,10 +38290,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>1971</v>
+        <v>1992</v>
       </c>
       <c r="C16" t="s">
-        <v>2058</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="17">
@@ -38099,10 +38301,10 @@
         <v>3</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>1981</v>
+        <v>2005</v>
       </c>
       <c r="C17" t="s">
-        <v>2058</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="18">
@@ -38110,10 +38312,10 @@
         <v>3</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>1989</v>
+        <v>2016</v>
       </c>
       <c r="C18" t="s">
-        <v>2058</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="19">
@@ -38121,10 +38323,10 @@
         <v>3</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>1993</v>
+        <v>2021</v>
       </c>
       <c r="C19" t="s">
-        <v>2058</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="20">
@@ -38132,10 +38334,10 @@
         <v>3</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>2059</v>
+        <v>2092</v>
       </c>
       <c r="C20" t="s">
-        <v>2058</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="21">
@@ -38143,10 +38345,10 @@
         <v>3</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>1997</v>
+        <v>2026</v>
       </c>
       <c r="C21" t="s">
-        <v>2058</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="22">
@@ -38154,10 +38356,10 @@
         <v>3</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>1926</v>
+        <v>1939</v>
       </c>
       <c r="C22" t="s">
-        <v>2058</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="23">
@@ -38165,10 +38367,10 @@
         <v>3</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>2004</v>
+        <v>2035</v>
       </c>
       <c r="C23" t="s">
-        <v>2058</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="24">
@@ -38176,10 +38378,10 @@
         <v>3</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>1904</v>
+        <v>1913</v>
       </c>
       <c r="C24" t="s">
-        <v>2060</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="25">
@@ -38187,10 +38389,10 @@
         <v>3</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>1960</v>
+        <v>1979</v>
       </c>
       <c r="C25" t="s">
-        <v>2060</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="26">
@@ -38198,10 +38400,10 @@
         <v>3</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>2050</v>
+        <v>2083</v>
       </c>
       <c r="C26" t="s">
-        <v>2060</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="27">
@@ -38209,10 +38411,10 @@
         <v>3</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>2051</v>
+        <v>2084</v>
       </c>
       <c r="C27" t="s">
-        <v>2060</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="28">
@@ -38220,10 +38422,10 @@
         <v>3</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>1964</v>
+        <v>1984</v>
       </c>
       <c r="C28" t="s">
-        <v>2060</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="29">
@@ -38231,10 +38433,10 @@
         <v>3</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>2052</v>
+        <v>2085</v>
       </c>
       <c r="C29" t="s">
-        <v>2060</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="30">
@@ -38242,10 +38444,10 @@
         <v>3</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>2053</v>
+        <v>2086</v>
       </c>
       <c r="C30" t="s">
-        <v>2060</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="31">
@@ -38253,10 +38455,10 @@
         <v>3</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>1916</v>
+        <v>1928</v>
       </c>
       <c r="C31" t="s">
-        <v>2060</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="32">
@@ -38264,10 +38466,10 @@
         <v>3</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>2010</v>
+        <v>2042</v>
       </c>
       <c r="C32" t="s">
-        <v>2060</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="33">
@@ -38275,10 +38477,10 @@
         <v>3</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>2021</v>
+        <v>2054</v>
       </c>
       <c r="C33" t="s">
-        <v>2060</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="34">
@@ -38286,10 +38488,10 @@
         <v>3</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>2054</v>
+        <v>2087</v>
       </c>
       <c r="C34" t="s">
-        <v>2060</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="35">
@@ -38297,10 +38499,10 @@
         <v>3</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>2027</v>
+        <v>2060</v>
       </c>
       <c r="C35" t="s">
-        <v>2060</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="36">
@@ -38308,10 +38510,10 @@
         <v>3</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>2034</v>
+        <v>2067</v>
       </c>
       <c r="C36" t="s">
-        <v>2060</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="37">
@@ -38319,10 +38521,10 @@
         <v>3</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>2045</v>
+        <v>2078</v>
       </c>
       <c r="C37" t="s">
-        <v>2060</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="38">
@@ -38330,10 +38532,10 @@
         <v>3</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>1971</v>
+        <v>1992</v>
       </c>
       <c r="C38" t="s">
-        <v>2060</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="39">
@@ -38341,10 +38543,10 @@
         <v>3</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>1981</v>
+        <v>2005</v>
       </c>
       <c r="C39" t="s">
-        <v>2060</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="40">
@@ -38352,10 +38554,10 @@
         <v>3</v>
       </c>
       <c r="B40" s="33" t="s">
-        <v>1989</v>
+        <v>2016</v>
       </c>
       <c r="C40" t="s">
-        <v>2060</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="41">
@@ -38363,10 +38565,10 @@
         <v>3</v>
       </c>
       <c r="B41" s="33" t="s">
-        <v>1993</v>
+        <v>2021</v>
       </c>
       <c r="C41" t="s">
-        <v>2060</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="42">
@@ -38374,10 +38576,10 @@
         <v>3</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>2059</v>
+        <v>2092</v>
       </c>
       <c r="C42" t="s">
-        <v>2060</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="43">
@@ -38385,10 +38587,10 @@
         <v>3</v>
       </c>
       <c r="B43" s="33" t="s">
-        <v>1997</v>
+        <v>2026</v>
       </c>
       <c r="C43" t="s">
-        <v>2060</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="44">
@@ -38396,10 +38598,10 @@
         <v>3</v>
       </c>
       <c r="B44" s="33" t="s">
-        <v>1926</v>
+        <v>1939</v>
       </c>
       <c r="C44" t="s">
-        <v>2060</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="45">
@@ -38407,10 +38609,10 @@
         <v>3</v>
       </c>
       <c r="B45" s="33" t="s">
-        <v>2004</v>
+        <v>2035</v>
       </c>
       <c r="C45" t="s">
-        <v>2060</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="46">
@@ -38418,10 +38620,10 @@
         <v>3</v>
       </c>
       <c r="B46" s="33" t="s">
-        <v>1904</v>
+        <v>1913</v>
       </c>
       <c r="C46" t="s">
-        <v>2061</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="47">
@@ -38429,10 +38631,10 @@
         <v>3</v>
       </c>
       <c r="B47" s="33" t="s">
-        <v>1960</v>
+        <v>1979</v>
       </c>
       <c r="C47" t="s">
-        <v>2061</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="48">
@@ -38440,10 +38642,10 @@
         <v>3</v>
       </c>
       <c r="B48" s="33" t="s">
-        <v>2050</v>
+        <v>2083</v>
       </c>
       <c r="C48" t="s">
-        <v>2061</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="49">
@@ -38451,10 +38653,10 @@
         <v>3</v>
       </c>
       <c r="B49" s="33" t="s">
-        <v>2051</v>
+        <v>2084</v>
       </c>
       <c r="C49" t="s">
-        <v>2061</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="50">
@@ -38462,10 +38664,10 @@
         <v>3</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>1964</v>
+        <v>1984</v>
       </c>
       <c r="C50" t="s">
-        <v>2061</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="51">
@@ -38473,10 +38675,10 @@
         <v>3</v>
       </c>
       <c r="B51" s="33" t="s">
-        <v>1916</v>
+        <v>1928</v>
       </c>
       <c r="C51" t="s">
-        <v>2061</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="52">
@@ -38484,10 +38686,10 @@
         <v>3</v>
       </c>
       <c r="B52" s="33" t="s">
-        <v>2010</v>
+        <v>2042</v>
       </c>
       <c r="C52" t="s">
-        <v>2061</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="53">
@@ -38495,10 +38697,10 @@
         <v>3</v>
       </c>
       <c r="B53" s="33" t="s">
-        <v>2021</v>
+        <v>2054</v>
       </c>
       <c r="C53" t="s">
-        <v>2061</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="54">
@@ -38506,10 +38708,10 @@
         <v>3</v>
       </c>
       <c r="B54" s="33" t="s">
-        <v>2054</v>
+        <v>2087</v>
       </c>
       <c r="C54" t="s">
-        <v>2061</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="55">
@@ -38517,10 +38719,10 @@
         <v>3</v>
       </c>
       <c r="B55" s="33" t="s">
-        <v>2027</v>
+        <v>2060</v>
       </c>
       <c r="C55" t="s">
-        <v>2061</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="56">
@@ -38528,10 +38730,10 @@
         <v>3</v>
       </c>
       <c r="B56" s="33" t="s">
-        <v>2034</v>
+        <v>2067</v>
       </c>
       <c r="C56" t="s">
-        <v>2061</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="57">
@@ -38539,10 +38741,10 @@
         <v>3</v>
       </c>
       <c r="B57" s="33" t="s">
-        <v>2045</v>
+        <v>2078</v>
       </c>
       <c r="C57" t="s">
-        <v>2061</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="58">
@@ -38550,10 +38752,10 @@
         <v>3</v>
       </c>
       <c r="B58" s="33" t="s">
-        <v>1971</v>
+        <v>1992</v>
       </c>
       <c r="C58" t="s">
-        <v>2061</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="59">
@@ -38561,10 +38763,10 @@
         <v>3</v>
       </c>
       <c r="B59" s="33" t="s">
-        <v>1981</v>
+        <v>2005</v>
       </c>
       <c r="C59" t="s">
-        <v>2061</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="60">
@@ -38572,10 +38774,10 @@
         <v>3</v>
       </c>
       <c r="B60" s="33" t="s">
-        <v>1989</v>
+        <v>2016</v>
       </c>
       <c r="C60" t="s">
-        <v>2061</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="61">
@@ -38583,10 +38785,10 @@
         <v>3</v>
       </c>
       <c r="B61" s="33" t="s">
-        <v>1993</v>
+        <v>2021</v>
       </c>
       <c r="C61" t="s">
-        <v>2061</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="62">
@@ -38594,10 +38796,10 @@
         <v>3</v>
       </c>
       <c r="B62" s="33" t="s">
-        <v>2059</v>
+        <v>2092</v>
       </c>
       <c r="C62" t="s">
-        <v>2061</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="63">
@@ -38605,10 +38807,10 @@
         <v>3</v>
       </c>
       <c r="B63" s="33" t="s">
-        <v>1997</v>
+        <v>2026</v>
       </c>
       <c r="C63" t="s">
-        <v>2061</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="64">
@@ -38616,10 +38818,10 @@
         <v>3</v>
       </c>
       <c r="B64" s="33" t="s">
-        <v>1926</v>
+        <v>1939</v>
       </c>
       <c r="C64" t="s">
-        <v>2061</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="65">
@@ -38627,10 +38829,10 @@
         <v>3</v>
       </c>
       <c r="B65" s="33" t="s">
-        <v>2004</v>
+        <v>2035</v>
       </c>
       <c r="C65" t="s">
-        <v>2061</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="66">
@@ -38638,10 +38840,10 @@
         <v>3</v>
       </c>
       <c r="B66" s="33" t="s">
-        <v>1904</v>
+        <v>1913</v>
       </c>
       <c r="C66" t="s">
-        <v>2062</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="67">
@@ -38649,10 +38851,10 @@
         <v>3</v>
       </c>
       <c r="B67" s="33" t="s">
-        <v>1960</v>
+        <v>1979</v>
       </c>
       <c r="C67" t="s">
-        <v>2062</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="68">
@@ -38660,10 +38862,10 @@
         <v>3</v>
       </c>
       <c r="B68" s="33" t="s">
-        <v>2050</v>
+        <v>2083</v>
       </c>
       <c r="C68" t="s">
-        <v>2062</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="69">
@@ -38671,10 +38873,10 @@
         <v>3</v>
       </c>
       <c r="B69" s="33" t="s">
-        <v>2051</v>
+        <v>2084</v>
       </c>
       <c r="C69" t="s">
-        <v>2062</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="70">
@@ -38682,10 +38884,10 @@
         <v>3</v>
       </c>
       <c r="B70" s="33" t="s">
-        <v>1964</v>
+        <v>1984</v>
       </c>
       <c r="C70" t="s">
-        <v>2062</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="71">
@@ -38693,10 +38895,10 @@
         <v>3</v>
       </c>
       <c r="B71" s="33" t="s">
-        <v>1916</v>
+        <v>1928</v>
       </c>
       <c r="C71" t="s">
-        <v>2062</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="72">
@@ -38704,10 +38906,10 @@
         <v>3</v>
       </c>
       <c r="B72" s="33" t="s">
-        <v>2010</v>
+        <v>2042</v>
       </c>
       <c r="C72" t="s">
-        <v>2062</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="73">
@@ -38715,10 +38917,10 @@
         <v>3</v>
       </c>
       <c r="B73" s="33" t="s">
-        <v>2021</v>
+        <v>2054</v>
       </c>
       <c r="C73" t="s">
-        <v>2062</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="74">
@@ -38726,10 +38928,10 @@
         <v>3</v>
       </c>
       <c r="B74" s="33" t="s">
-        <v>2054</v>
+        <v>2087</v>
       </c>
       <c r="C74" t="s">
-        <v>2062</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="75">
@@ -38737,10 +38939,10 @@
         <v>3</v>
       </c>
       <c r="B75" s="33" t="s">
-        <v>2027</v>
+        <v>2060</v>
       </c>
       <c r="C75" t="s">
-        <v>2062</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="76">
@@ -38748,10 +38950,10 @@
         <v>3</v>
       </c>
       <c r="B76" s="33" t="s">
-        <v>2055</v>
+        <v>2088</v>
       </c>
       <c r="C76" t="s">
-        <v>2062</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="77">
@@ -38759,10 +38961,10 @@
         <v>3</v>
       </c>
       <c r="B77" s="33" t="s">
-        <v>2045</v>
+        <v>2078</v>
       </c>
       <c r="C77" t="s">
-        <v>2062</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="78">
@@ -38770,10 +38972,10 @@
         <v>3</v>
       </c>
       <c r="B78" s="33" t="s">
-        <v>1971</v>
+        <v>1992</v>
       </c>
       <c r="C78" t="s">
-        <v>2062</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="79">
@@ -38781,10 +38983,10 @@
         <v>3</v>
       </c>
       <c r="B79" s="33" t="s">
-        <v>1989</v>
+        <v>2016</v>
       </c>
       <c r="C79" t="s">
-        <v>2062</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="80">
@@ -38792,10 +38994,10 @@
         <v>3</v>
       </c>
       <c r="B80" s="33" t="s">
-        <v>1993</v>
+        <v>2021</v>
       </c>
       <c r="C80" t="s">
-        <v>2062</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="81">
@@ -38803,10 +39005,10 @@
         <v>3</v>
       </c>
       <c r="B81" s="33" t="s">
-        <v>2059</v>
+        <v>2092</v>
       </c>
       <c r="C81" t="s">
-        <v>2062</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="82">
@@ -38814,10 +39016,10 @@
         <v>3</v>
       </c>
       <c r="B82" s="33" t="s">
-        <v>1997</v>
+        <v>2026</v>
       </c>
       <c r="C82" t="s">
-        <v>2062</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="83">
@@ -38825,10 +39027,10 @@
         <v>3</v>
       </c>
       <c r="B83" s="33" t="s">
-        <v>1926</v>
+        <v>1939</v>
       </c>
       <c r="C83" t="s">
-        <v>2062</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="84">
@@ -38836,10 +39038,10 @@
         <v>3</v>
       </c>
       <c r="B84" s="33" t="s">
-        <v>2004</v>
+        <v>2035</v>
       </c>
       <c r="C84" t="s">
-        <v>2062</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="85">
@@ -38847,10 +39049,10 @@
         <v>3</v>
       </c>
       <c r="B85" s="33" t="s">
-        <v>1904</v>
+        <v>1913</v>
       </c>
       <c r="C85" t="s">
-        <v>2063</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="86">
@@ -38858,10 +39060,10 @@
         <v>3</v>
       </c>
       <c r="B86" s="33" t="s">
-        <v>1960</v>
+        <v>1979</v>
       </c>
       <c r="C86" t="s">
-        <v>2063</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="87">
@@ -38869,10 +39071,10 @@
         <v>3</v>
       </c>
       <c r="B87" s="33" t="s">
-        <v>2050</v>
+        <v>2083</v>
       </c>
       <c r="C87" t="s">
-        <v>2063</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="88">
@@ -38880,10 +39082,10 @@
         <v>3</v>
       </c>
       <c r="B88" s="33" t="s">
-        <v>2051</v>
+        <v>2084</v>
       </c>
       <c r="C88" t="s">
-        <v>2063</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="89">
@@ -38891,10 +39093,10 @@
         <v>3</v>
       </c>
       <c r="B89" s="33" t="s">
-        <v>1964</v>
+        <v>1984</v>
       </c>
       <c r="C89" t="s">
-        <v>2063</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="90">
@@ -38902,10 +39104,10 @@
         <v>3</v>
       </c>
       <c r="B90" s="33" t="s">
-        <v>2021</v>
+        <v>2054</v>
       </c>
       <c r="C90" t="s">
-        <v>2063</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="91">
@@ -38913,10 +39115,10 @@
         <v>3</v>
       </c>
       <c r="B91" s="33" t="s">
-        <v>2054</v>
+        <v>2087</v>
       </c>
       <c r="C91" t="s">
-        <v>2063</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="92">
@@ -38924,10 +39126,10 @@
         <v>3</v>
       </c>
       <c r="B92" s="33" t="s">
-        <v>2027</v>
+        <v>2060</v>
       </c>
       <c r="C92" t="s">
-        <v>2063</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="93">
@@ -38935,10 +39137,10 @@
         <v>3</v>
       </c>
       <c r="B93" s="33" t="s">
-        <v>1981</v>
+        <v>2005</v>
       </c>
       <c r="C93" t="s">
-        <v>2063</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="94">
@@ -38946,10 +39148,10 @@
         <v>3</v>
       </c>
       <c r="B94" s="33" t="s">
-        <v>1989</v>
+        <v>2016</v>
       </c>
       <c r="C94" t="s">
-        <v>2063</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="95">
@@ -38957,10 +39159,10 @@
         <v>3</v>
       </c>
       <c r="B95" s="33" t="s">
-        <v>1993</v>
+        <v>2021</v>
       </c>
       <c r="C95" t="s">
-        <v>2063</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="96">
@@ -38968,10 +39170,10 @@
         <v>3</v>
       </c>
       <c r="B96" s="33" t="s">
-        <v>2059</v>
+        <v>2092</v>
       </c>
       <c r="C96" t="s">
-        <v>2063</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="97">
@@ -38979,10 +39181,10 @@
         <v>3</v>
       </c>
       <c r="B97" s="33" t="s">
-        <v>1926</v>
+        <v>1939</v>
       </c>
       <c r="C97" t="s">
-        <v>2063</v>
+        <v>2096</v>
       </c>
     </row>
   </sheetData>
@@ -39017,7 +39219,7 @@
         <v>16</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>2064</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="2">
@@ -39025,10 +39227,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>1904</v>
+        <v>1913</v>
       </c>
       <c r="C2" t="s">
-        <v>2065</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="3">
@@ -39036,10 +39238,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>1904</v>
+        <v>1913</v>
       </c>
       <c r="C3" t="s">
-        <v>2066</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="4">
@@ -39047,10 +39249,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>1904</v>
+        <v>1913</v>
       </c>
       <c r="C4" t="s">
-        <v>2067</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="5">
@@ -39058,10 +39260,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>1904</v>
+        <v>1913</v>
       </c>
       <c r="C5" t="s">
-        <v>2068</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="6" ht="14.25">
